--- a/OldMutual/Output/StatementSummary.xlsx
+++ b/OldMutual/Output/StatementSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91888\OneDrive\Documents\UiPath\Old Mutual Final - Ramesh\Old-Mutual-Excel-Automation\OldMutual\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC23283-D605-4735-AA4D-0646E93FEECD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281615DF-A8A0-4146-9397-98FFACB307CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{574CCD08-F5A6-4833-9F7A-D19EC403FB22}"/>
   </bookViews>
@@ -4986,10 +4986,10 @@
       </c>
       <c r="E14">
         <f>F14+G14</f>
-        <v>0</v>
+        <v>84050.12</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>84050.12</v>
       </c>
       <c r="H14" t="s">
         <v>1478</v>
@@ -5163,11 +5163,11 @@
       </c>
       <c r="E27">
         <f>F27+G27</f>
-        <v>5578720.1500000004</v>
+        <v>5662770.2700000005</v>
       </c>
       <c r="F27">
         <f>SUM(F11:F26)</f>
-        <v>297235.46999999997</v>
+        <v>381285.58999999997</v>
       </c>
       <c r="G27">
         <f>SUM(G11:G26)</f>

--- a/OldMutual/Output/StatementSummary.xlsx
+++ b/OldMutual/Output/StatementSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91888\OneDrive\Documents\UiPath\Old Mutual Final - Ramesh\Old-Mutual-Excel-Automation\OldMutual\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281615DF-A8A0-4146-9397-98FFACB307CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02FC948-082E-443E-8DD3-5D1C0E0303A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{574CCD08-F5A6-4833-9F7A-D19EC403FB22}"/>
   </bookViews>
@@ -19,6 +19,9 @@
     <sheet name="Declines - Miscellaneous" sheetId="4" r:id="rId4"/>
     <sheet name="Untraced Bills" sheetId="3" r:id="rId5"/>
     <sheet name="Benefits OM" sheetId="2" r:id="rId6"/>
+    <sheet name="SUDAN MEMBERS" sheetId="8" r:id="rId7"/>
+    <sheet name="RWANDA MEMBERS" sheetId="9" r:id="rId8"/>
+    <sheet name="UGANDA MEMBERS" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7582" uniqueCount="1504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8377" uniqueCount="1504">
   <si>
     <t>Group</t>
   </si>
@@ -4548,7 +4551,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4571,7 +4584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -4579,11 +4592,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4591,9 +4685,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4906,9 +5011,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A2FFFF-75C1-4F63-ABA8-C986A7F430B1}">
-  <dimension ref="D9:H27"/>
+  <dimension ref="D8:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4919,263 +5026,300 @@
     <col min="8" max="8" width="68.21875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="8" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="E9" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
         <v>1503</v>
       </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D10" t="s">
+      <c r="D10" s="6" t="s">
         <v>1466</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="7" t="s">
         <v>1467</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="7" t="s">
         <v>1468</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="7" t="s">
         <v>1469</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="8" t="s">
         <v>1470</v>
       </c>
     </row>
     <row r="11" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
+      <c r="D11" s="6" t="s">
         <v>1471</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="9">
         <f>F11+G11</f>
         <v>2497090.25</v>
       </c>
-      <c r="G11">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9">
         <v>2497090.25</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="8" t="s">
         <v>1472</v>
       </c>
     </row>
     <row r="12" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D12" t="s">
+      <c r="D12" s="6" t="s">
         <v>1473</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="9">
         <f>F12+G12</f>
         <v>0</v>
       </c>
-      <c r="H12" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="8" t="s">
         <v>1474</v>
       </c>
     </row>
     <row r="13" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
+      <c r="D13" s="6" t="s">
         <v>1475</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="9">
         <f>F13+G13</f>
         <v>0</v>
       </c>
-      <c r="H13" t="s">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="8" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="14" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
+      <c r="D14" s="6" t="s">
         <v>1477</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="9">
         <f>F14+G14</f>
         <v>84050.12</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="9">
         <v>84050.12</v>
       </c>
-      <c r="H14" t="s">
+      <c r="G14" s="9"/>
+      <c r="H14" s="8" t="s">
         <v>1478</v>
       </c>
     </row>
     <row r="15" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
+      <c r="D15" s="6" t="s">
         <v>1479</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="9">
         <f>F15+G15</f>
         <v>255215.35</v>
       </c>
-      <c r="G15">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9">
         <v>255215.35</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="8" t="s">
         <v>1480</v>
       </c>
     </row>
     <row r="16" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
+      <c r="D16" s="6" t="s">
         <v>1481</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="9">
         <f>F16+G16</f>
         <v>0</v>
       </c>
-      <c r="H16" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="8" t="s">
         <v>1482</v>
       </c>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D17" t="s">
+      <c r="D17" s="6" t="s">
         <v>1483</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="9">
         <f>F17+G17</f>
         <v>2249515.4500000002</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="9">
         <v>297235.46999999997</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="9">
         <v>1952279.98</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="8" t="s">
         <v>1484</v>
       </c>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
+      <c r="D18" s="6" t="s">
         <v>1485</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="9">
         <f>F18+G18</f>
         <v>0</v>
       </c>
-      <c r="H18" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="8" t="s">
         <v>1486</v>
       </c>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
+      <c r="D19" s="6" t="s">
         <v>1487</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="9">
         <f>F19+G19</f>
         <v>17869.36</v>
       </c>
-      <c r="G19">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9">
         <v>17869.36</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="8" t="s">
         <v>1488</v>
       </c>
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D20" t="s">
+      <c r="D20" s="6" t="s">
         <v>1489</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="9">
         <f>F20+G20</f>
         <v>4850</v>
       </c>
-      <c r="G20">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9">
         <v>4850</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="8" t="s">
         <v>1490</v>
       </c>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D21" t="s">
+      <c r="D21" s="6" t="s">
         <v>1491</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="9">
         <f>F21+G21</f>
         <v>554179.74</v>
       </c>
-      <c r="G21">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9">
         <v>554179.74</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="8" t="s">
         <v>1492</v>
       </c>
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
+      <c r="D22" s="6" t="s">
         <v>1493</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="9">
         <f>F22+G22</f>
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
+        <v>41162.8999999999</v>
+      </c>
+      <c r="F22" s="9">
+        <v>41162.8999999999</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="8" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D23" t="s">
+      <c r="D23" s="6" t="s">
         <v>1495</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="9">
         <f>F23+G23</f>
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
+        <v>202960.33</v>
+      </c>
+      <c r="F23" s="9">
+        <v>202960.33</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="8" t="s">
         <v>1496</v>
       </c>
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D24" t="s">
+      <c r="D24" s="6" t="s">
         <v>1497</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="9">
         <f>F24+G24</f>
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
+        <v>137670.48000000001</v>
+      </c>
+      <c r="F24" s="9">
+        <v>137670.48000000001</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="8" t="s">
         <v>1498</v>
       </c>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
+      <c r="D25" s="6" t="s">
         <v>1499</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="9">
         <f>F25+G25</f>
         <v>0</v>
       </c>
-      <c r="H25" t="s">
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="8" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D26" t="s">
+      <c r="D26" s="6" t="s">
         <v>1501</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="9">
         <f>F26+G26</f>
         <v>0</v>
       </c>
-      <c r="H26" t="s">
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="8" t="s">
         <v>1502</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D27" t="s">
+    <row r="27" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="10" t="s">
         <v>1467</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="11">
         <f>F27+G27</f>
-        <v>5662770.2700000005</v>
-      </c>
-      <c r="F27">
+        <v>6044563.9800000004</v>
+      </c>
+      <c r="F27" s="11">
         <f>SUM(F11:F26)</f>
-        <v>381285.58999999997</v>
-      </c>
-      <c r="G27">
+        <v>763079.29999999981</v>
+      </c>
+      <c r="G27" s="11">
         <f>SUM(G11:G26)</f>
         <v>5281484.6800000006</v>
       </c>
+      <c r="H27" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5379,7 +5523,7 @@
       <c r="D2" t="s">
         <v>1157</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="13">
         <v>44713</v>
       </c>
       <c r="F2" t="s">
@@ -5421,13 +5565,13 @@
       <c r="R2" t="s">
         <v>136</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="13">
         <v>44653</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="13">
         <v>44653</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="13">
         <v>44835</v>
       </c>
       <c r="Z2" t="s">
@@ -5928,7 +6072,7 @@
       <c r="D2" t="s">
         <v>1193</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="13">
         <v>44682</v>
       </c>
       <c r="F2" t="s">
@@ -6234,7 +6378,7 @@
       <c r="D2" t="s">
         <v>1157</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="13">
         <v>44713</v>
       </c>
       <c r="F2" t="s">
@@ -6276,13 +6420,13 @@
       <c r="R2" t="s">
         <v>136</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="13">
         <v>44653</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="13">
         <v>44653</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="13">
         <v>44835</v>
       </c>
       <c r="Z2" t="s">
@@ -6460,7 +6604,7 @@
       <c r="D4" t="s">
         <v>1173</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="13">
         <v>44593</v>
       </c>
       <c r="F4" t="s">
@@ -6579,7 +6723,7 @@
       <c r="D5" t="s">
         <v>1173</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="13">
         <v>44593</v>
       </c>
       <c r="F5" t="s">
@@ -6698,7 +6842,7 @@
       <c r="D6" t="s">
         <v>1173</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="13">
         <v>44593</v>
       </c>
       <c r="F6" t="s">
@@ -6817,7 +6961,7 @@
       <c r="D7" t="s">
         <v>1184</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="13">
         <v>44652</v>
       </c>
       <c r="F7" t="s">
@@ -6930,7 +7074,7 @@
       <c r="D8" t="s">
         <v>1184</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="13">
         <v>44652</v>
       </c>
       <c r="F8" t="s">
@@ -7043,7 +7187,7 @@
       <c r="D9" t="s">
         <v>1193</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="13">
         <v>44682</v>
       </c>
       <c r="F9" t="s">
@@ -7156,7 +7300,7 @@
       <c r="D10" t="s">
         <v>1200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="13">
         <v>44743</v>
       </c>
       <c r="F10" t="s">
@@ -7269,7 +7413,7 @@
       <c r="D11" t="s">
         <v>1206</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="13">
         <v>44774</v>
       </c>
       <c r="F11" t="s">
@@ -7311,10 +7455,10 @@
       <c r="R11" t="s">
         <v>124</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="13">
         <v>44565</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="13">
         <v>44805</v>
       </c>
       <c r="Z11" t="s">
@@ -7382,7 +7526,7 @@
       <c r="D12" t="s">
         <v>1206</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="13">
         <v>44774</v>
       </c>
       <c r="F12" t="s">
@@ -7424,10 +7568,10 @@
       <c r="R12" t="s">
         <v>124</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="13">
         <v>44565</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12" s="13">
         <v>44805</v>
       </c>
       <c r="Z12" t="s">
@@ -9220,7 +9364,7 @@
       <c r="R28" t="s">
         <v>1215</v>
       </c>
-      <c r="T28" s="3">
+      <c r="T28" s="13">
         <v>44986</v>
       </c>
       <c r="W28" t="s">
@@ -9333,7 +9477,7 @@
       <c r="R29" t="s">
         <v>1215</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="13">
         <v>44986</v>
       </c>
       <c r="W29" t="s">
@@ -9446,7 +9590,7 @@
       <c r="R30" t="s">
         <v>1215</v>
       </c>
-      <c r="T30" s="3">
+      <c r="T30" s="13">
         <v>44986</v>
       </c>
       <c r="W30" t="s">
@@ -9559,7 +9703,7 @@
       <c r="R31" t="s">
         <v>1215</v>
       </c>
-      <c r="T31" s="3">
+      <c r="T31" s="13">
         <v>44986</v>
       </c>
       <c r="W31" t="s">
@@ -9672,7 +9816,7 @@
       <c r="R32" t="s">
         <v>1215</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T32" s="13">
         <v>44986</v>
       </c>
       <c r="W32" t="s">
@@ -9785,7 +9929,7 @@
       <c r="R33" t="s">
         <v>1215</v>
       </c>
-      <c r="T33" s="3">
+      <c r="T33" s="13">
         <v>44986</v>
       </c>
       <c r="W33" t="s">
@@ -9898,7 +10042,7 @@
       <c r="R34" t="s">
         <v>1215</v>
       </c>
-      <c r="T34" s="3">
+      <c r="T34" s="13">
         <v>44986</v>
       </c>
       <c r="W34" t="s">
@@ -10011,7 +10155,7 @@
       <c r="R35" t="s">
         <v>1215</v>
       </c>
-      <c r="T35" s="3">
+      <c r="T35" s="13">
         <v>44986</v>
       </c>
       <c r="W35" t="s">
@@ -10124,7 +10268,7 @@
       <c r="R36" t="s">
         <v>1215</v>
       </c>
-      <c r="T36" s="3">
+      <c r="T36" s="13">
         <v>44986</v>
       </c>
       <c r="W36" t="s">
@@ -10237,7 +10381,7 @@
       <c r="R37" t="s">
         <v>1215</v>
       </c>
-      <c r="T37" s="3">
+      <c r="T37" s="13">
         <v>44986</v>
       </c>
       <c r="W37" t="s">
@@ -10350,7 +10494,7 @@
       <c r="R38" t="s">
         <v>1215</v>
       </c>
-      <c r="T38" s="3">
+      <c r="T38" s="13">
         <v>44986</v>
       </c>
       <c r="W38" t="s">
@@ -10463,7 +10607,7 @@
       <c r="R39" t="s">
         <v>1215</v>
       </c>
-      <c r="T39" s="3">
+      <c r="T39" s="13">
         <v>44986</v>
       </c>
       <c r="W39" t="s">
@@ -10915,7 +11059,7 @@
       <c r="R43" t="s">
         <v>1215</v>
       </c>
-      <c r="T43" s="3">
+      <c r="T43" s="13">
         <v>44986</v>
       </c>
       <c r="W43" t="s">
@@ -11028,7 +11172,7 @@
       <c r="R44" t="s">
         <v>1215</v>
       </c>
-      <c r="T44" s="3">
+      <c r="T44" s="13">
         <v>44986</v>
       </c>
       <c r="W44" t="s">
@@ -11141,7 +11285,7 @@
       <c r="R45" t="s">
         <v>1215</v>
       </c>
-      <c r="T45" s="3">
+      <c r="T45" s="13">
         <v>44986</v>
       </c>
       <c r="W45" t="s">
@@ -11254,7 +11398,7 @@
       <c r="R46" t="s">
         <v>1215</v>
       </c>
-      <c r="T46" s="3">
+      <c r="T46" s="13">
         <v>44986</v>
       </c>
       <c r="W46" t="s">
@@ -11822,7 +11966,7 @@
       <c r="T51" t="s">
         <v>1255</v>
       </c>
-      <c r="W51" s="3">
+      <c r="W51" s="13">
         <v>44683</v>
       </c>
       <c r="Z51" t="s">
@@ -11997,7 +12141,7 @@
       <c r="D53" t="s">
         <v>1358</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="13">
         <v>44563</v>
       </c>
       <c r="F53" t="s">
@@ -12104,7 +12248,7 @@
       <c r="D54" t="s">
         <v>1362</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="13">
         <v>44563</v>
       </c>
       <c r="F54" t="s">
@@ -12217,7 +12361,7 @@
       <c r="D55" t="s">
         <v>1368</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="13">
         <v>44594</v>
       </c>
       <c r="F55" t="s">
@@ -12330,7 +12474,7 @@
       <c r="D56" t="s">
         <v>1368</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="13">
         <v>44622</v>
       </c>
       <c r="F56" t="s">
@@ -12443,7 +12587,7 @@
       <c r="D57" t="s">
         <v>1368</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="13">
         <v>44622</v>
       </c>
       <c r="F57" t="s">
@@ -12556,7 +12700,7 @@
       <c r="D58" t="s">
         <v>1368</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="13">
         <v>44622</v>
       </c>
       <c r="F58" t="s">
@@ -12669,7 +12813,7 @@
       <c r="D59" t="s">
         <v>1368</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="13">
         <v>44653</v>
       </c>
       <c r="F59" t="s">
@@ -12782,7 +12926,7 @@
       <c r="D60" t="s">
         <v>1379</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="13">
         <v>44744</v>
       </c>
       <c r="F60" t="s">
@@ -12895,7 +13039,7 @@
       <c r="D61" t="s">
         <v>1386</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="13">
         <v>44775</v>
       </c>
       <c r="F61" t="s">
@@ -13008,7 +13152,7 @@
       <c r="D62" t="s">
         <v>1392</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="13">
         <v>44836</v>
       </c>
       <c r="F62" t="s">
@@ -13121,7 +13265,7 @@
       <c r="D63" t="s">
         <v>1399</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="13">
         <v>44867</v>
       </c>
       <c r="F63" t="s">
@@ -13234,7 +13378,7 @@
       <c r="D64" t="s">
         <v>1404</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="13">
         <v>44897</v>
       </c>
       <c r="F64" t="s">
@@ -13347,7 +13491,7 @@
       <c r="D65" t="s">
         <v>1412</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="13">
         <v>44897</v>
       </c>
       <c r="F65" t="s">
@@ -13460,7 +13604,7 @@
       <c r="D66" t="s">
         <v>1412</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="13">
         <v>44897</v>
       </c>
       <c r="F66" t="s">
@@ -13573,7 +13717,7 @@
       <c r="D67" t="s">
         <v>1412</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="13">
         <v>44897</v>
       </c>
       <c r="F67" t="s">
@@ -13686,7 +13830,7 @@
       <c r="D68" t="s">
         <v>1420</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="13">
         <v>44897</v>
       </c>
       <c r="F68" t="s">
@@ -14816,7 +14960,7 @@
       <c r="D78" t="s">
         <v>1206</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="13">
         <v>44774</v>
       </c>
       <c r="F78" t="s">
@@ -14858,10 +15002,10 @@
       <c r="R78" t="s">
         <v>124</v>
       </c>
-      <c r="T78" s="3">
+      <c r="T78" s="13">
         <v>44565</v>
       </c>
-      <c r="W78" s="3">
+      <c r="W78" s="13">
         <v>44805</v>
       </c>
       <c r="Z78" t="s">
@@ -14929,7 +15073,7 @@
       <c r="D79" t="s">
         <v>1457</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="13">
         <v>44775</v>
       </c>
       <c r="F79" t="s">
@@ -14974,7 +15118,7 @@
       <c r="T79" t="s">
         <v>1462</v>
       </c>
-      <c r="W79" s="3">
+      <c r="W79" s="13">
         <v>44836</v>
       </c>
       <c r="Z79" t="s">
@@ -15357,7 +15501,7 @@
       <c r="B2" t="s">
         <v>436</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="13">
         <v>44562</v>
       </c>
       <c r="D2">
@@ -15410,7 +15554,7 @@
       <c r="B3" t="s">
         <v>445</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="13">
         <v>44562</v>
       </c>
       <c r="D3">
@@ -15463,7 +15607,7 @@
       <c r="B4" t="s">
         <v>450</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="13">
         <v>44563</v>
       </c>
       <c r="D4">
@@ -15516,7 +15660,7 @@
       <c r="B5" t="s">
         <v>455</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="13">
         <v>44564</v>
       </c>
       <c r="D5">
@@ -15569,7 +15713,7 @@
       <c r="B6" t="s">
         <v>459</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="13">
         <v>44564</v>
       </c>
       <c r="D6">
@@ -15622,7 +15766,7 @@
       <c r="B7" t="s">
         <v>464</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="13">
         <v>44564</v>
       </c>
       <c r="D7">
@@ -15675,7 +15819,7 @@
       <c r="B8" t="s">
         <v>469</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="13">
         <v>44564</v>
       </c>
       <c r="D8">
@@ -15728,7 +15872,7 @@
       <c r="B9" t="s">
         <v>471</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="13">
         <v>44564</v>
       </c>
       <c r="D9">
@@ -15781,7 +15925,7 @@
       <c r="B10" t="s">
         <v>473</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="13">
         <v>44564</v>
       </c>
       <c r="D10">
@@ -15834,7 +15978,7 @@
       <c r="B11" t="s">
         <v>475</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="13">
         <v>44564</v>
       </c>
       <c r="D11">
@@ -15887,7 +16031,7 @@
       <c r="B12" t="s">
         <v>477</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="13">
         <v>44564</v>
       </c>
       <c r="D12">
@@ -15940,7 +16084,7 @@
       <c r="B13" t="s">
         <v>479</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="13">
         <v>44564</v>
       </c>
       <c r="D13">
@@ -15993,7 +16137,7 @@
       <c r="B14" t="s">
         <v>481</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="13">
         <v>44565</v>
       </c>
       <c r="D14">
@@ -16046,7 +16190,7 @@
       <c r="B15" t="s">
         <v>485</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="13">
         <v>44565</v>
       </c>
       <c r="D15">
@@ -16099,7 +16243,7 @@
       <c r="B16" t="s">
         <v>490</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="13">
         <v>44565</v>
       </c>
       <c r="D16">
@@ -16152,7 +16296,7 @@
       <c r="B17" t="s">
         <v>494</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="13">
         <v>44565</v>
       </c>
       <c r="D17">
@@ -16205,7 +16349,7 @@
       <c r="B18" t="s">
         <v>499</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="13">
         <v>44565</v>
       </c>
       <c r="D18">
@@ -16258,7 +16402,7 @@
       <c r="B19" t="s">
         <v>501</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="13">
         <v>44565</v>
       </c>
       <c r="D19">
@@ -16311,7 +16455,7 @@
       <c r="B20" t="s">
         <v>503</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="13">
         <v>44565</v>
       </c>
       <c r="D20">
@@ -16364,7 +16508,7 @@
       <c r="B21" t="s">
         <v>505</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="13">
         <v>44565</v>
       </c>
       <c r="D21">
@@ -16417,7 +16561,7 @@
       <c r="B22" t="s">
         <v>507</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="13">
         <v>44566</v>
       </c>
       <c r="D22">
@@ -16470,7 +16614,7 @@
       <c r="B23" t="s">
         <v>509</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="13">
         <v>44566</v>
       </c>
       <c r="D23">
@@ -16523,7 +16667,7 @@
       <c r="B24" t="s">
         <v>511</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="13">
         <v>44567</v>
       </c>
       <c r="D24">
@@ -16576,7 +16720,7 @@
       <c r="B25" t="s">
         <v>516</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="13">
         <v>44567</v>
       </c>
       <c r="D25">
@@ -16629,7 +16773,7 @@
       <c r="B26" t="s">
         <v>521</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="13">
         <v>44567</v>
       </c>
       <c r="D26">
@@ -16682,7 +16826,7 @@
       <c r="B27" t="s">
         <v>523</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="13">
         <v>44568</v>
       </c>
       <c r="D27">
@@ -16735,7 +16879,7 @@
       <c r="B28" t="s">
         <v>528</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="13">
         <v>44569</v>
       </c>
       <c r="D28">
@@ -16788,7 +16932,7 @@
       <c r="B29" t="s">
         <v>533</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="13">
         <v>44571</v>
       </c>
       <c r="D29">
@@ -16841,7 +16985,7 @@
       <c r="B30" t="s">
         <v>537</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="13">
         <v>44571</v>
       </c>
       <c r="D30">
@@ -16894,7 +17038,7 @@
       <c r="B31" t="s">
         <v>539</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="13">
         <v>44571</v>
       </c>
       <c r="D31">
@@ -16947,7 +17091,7 @@
       <c r="B32" t="s">
         <v>541</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="13">
         <v>44571</v>
       </c>
       <c r="D32">
@@ -17000,7 +17144,7 @@
       <c r="B33" t="s">
         <v>543</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="13">
         <v>44572</v>
       </c>
       <c r="D33">
@@ -17053,7 +17197,7 @@
       <c r="B34" t="s">
         <v>545</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="13">
         <v>44572</v>
       </c>
       <c r="D34">
@@ -17106,7 +17250,7 @@
       <c r="B35" t="s">
         <v>547</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="13">
         <v>44573</v>
       </c>
       <c r="D35">
@@ -17159,7 +17303,7 @@
       <c r="B36" t="s">
         <v>551</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="13">
         <v>44573</v>
       </c>
       <c r="D36">
@@ -17212,7 +17356,7 @@
       <c r="B37" t="s">
         <v>553</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="13">
         <v>44573</v>
       </c>
       <c r="D37">
@@ -17265,7 +17409,7 @@
       <c r="B38" t="s">
         <v>555</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="13">
         <v>44573</v>
       </c>
       <c r="D38">
@@ -17318,7 +17462,7 @@
       <c r="B39" t="s">
         <v>560</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="13">
         <v>44573</v>
       </c>
       <c r="D39">
@@ -17371,7 +17515,7 @@
       <c r="B40" t="s">
         <v>562</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="13">
         <v>44573</v>
       </c>
       <c r="D40">
@@ -17424,7 +17568,7 @@
       <c r="B41" t="s">
         <v>566</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="13">
         <v>44574</v>
       </c>
       <c r="D41">
@@ -17477,7 +17621,7 @@
       <c r="B42" t="s">
         <v>571</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="13">
         <v>44574</v>
       </c>
       <c r="D42">
@@ -17530,7 +17674,7 @@
       <c r="B43" t="s">
         <v>573</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="13">
         <v>44574</v>
       </c>
       <c r="D43">
@@ -17583,7 +17727,7 @@
       <c r="B44" t="s">
         <v>578</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="13">
         <v>44574</v>
       </c>
       <c r="D44">
@@ -17636,7 +17780,7 @@
       <c r="B45" t="s">
         <v>582</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="13">
         <v>44574</v>
       </c>
       <c r="D45">
@@ -17689,7 +17833,7 @@
       <c r="B46" t="s">
         <v>586</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="13">
         <v>44574</v>
       </c>
       <c r="D46">
@@ -17742,7 +17886,7 @@
       <c r="B47" t="s">
         <v>590</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="13">
         <v>44575</v>
       </c>
       <c r="D47">
@@ -17795,7 +17939,7 @@
       <c r="B48" t="s">
         <v>595</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="13">
         <v>44575</v>
       </c>
       <c r="D48">
@@ -17848,7 +17992,7 @@
       <c r="B49" t="s">
         <v>597</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="13">
         <v>44575</v>
       </c>
       <c r="D49">
@@ -17901,7 +18045,7 @@
       <c r="B50" t="s">
         <v>601</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="13">
         <v>44575</v>
       </c>
       <c r="D50">
@@ -17954,7 +18098,7 @@
       <c r="B51" t="s">
         <v>603</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="13">
         <v>44575</v>
       </c>
       <c r="D51">
@@ -18007,7 +18151,7 @@
       <c r="B52" t="s">
         <v>607</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="13">
         <v>44576</v>
       </c>
       <c r="D52">
@@ -18060,7 +18204,7 @@
       <c r="B53" t="s">
         <v>611</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="13">
         <v>44577</v>
       </c>
       <c r="D53">
@@ -18113,7 +18257,7 @@
       <c r="B54" t="s">
         <v>616</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="13">
         <v>44577</v>
       </c>
       <c r="D54">
@@ -18166,7 +18310,7 @@
       <c r="B55" t="s">
         <v>618</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="13">
         <v>44578</v>
       </c>
       <c r="D55">
@@ -18219,7 +18363,7 @@
       <c r="B56" t="s">
         <v>623</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="13">
         <v>44578</v>
       </c>
       <c r="D56">
@@ -18272,7 +18416,7 @@
       <c r="B57" t="s">
         <v>628</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="13">
         <v>44578</v>
       </c>
       <c r="D57">
@@ -18325,7 +18469,7 @@
       <c r="B58" t="s">
         <v>632</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="13">
         <v>44578</v>
       </c>
       <c r="D58">
@@ -18378,7 +18522,7 @@
       <c r="B59" t="s">
         <v>636</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="13">
         <v>44578</v>
       </c>
       <c r="D59">
@@ -18431,7 +18575,7 @@
       <c r="B60" t="s">
         <v>640</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="13">
         <v>44578</v>
       </c>
       <c r="D60">
@@ -18484,7 +18628,7 @@
       <c r="B61" t="s">
         <v>642</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="13">
         <v>44578</v>
       </c>
       <c r="D61">
@@ -18537,7 +18681,7 @@
       <c r="B62" t="s">
         <v>644</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="13">
         <v>44578</v>
       </c>
       <c r="D62">
@@ -18590,7 +18734,7 @@
       <c r="B63" t="s">
         <v>648</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="13">
         <v>44578</v>
       </c>
       <c r="D63">
@@ -18643,7 +18787,7 @@
       <c r="B64" t="s">
         <v>650</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="13">
         <v>44578</v>
       </c>
       <c r="D64">
@@ -18696,7 +18840,7 @@
       <c r="B65" t="s">
         <v>652</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="13">
         <v>44579</v>
       </c>
       <c r="D65">
@@ -18749,7 +18893,7 @@
       <c r="B66" t="s">
         <v>657</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="13">
         <v>44579</v>
       </c>
       <c r="D66">
@@ -18802,7 +18946,7 @@
       <c r="B67" t="s">
         <v>661</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="13">
         <v>44579</v>
       </c>
       <c r="D67">
@@ -18855,7 +18999,7 @@
       <c r="B68" t="s">
         <v>665</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="13">
         <v>44579</v>
       </c>
       <c r="D68">
@@ -18908,7 +19052,7 @@
       <c r="B69" t="s">
         <v>669</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="13">
         <v>44579</v>
       </c>
       <c r="D69">
@@ -18961,7 +19105,7 @@
       <c r="B70" t="s">
         <v>671</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="13">
         <v>44580</v>
       </c>
       <c r="D70">
@@ -19014,7 +19158,7 @@
       <c r="B71" t="s">
         <v>675</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="13">
         <v>44580</v>
       </c>
       <c r="D71">
@@ -19067,7 +19211,7 @@
       <c r="B72" t="s">
         <v>677</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="13">
         <v>44580</v>
       </c>
       <c r="D72">
@@ -19120,7 +19264,7 @@
       <c r="B73" t="s">
         <v>681</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="13">
         <v>44580</v>
       </c>
       <c r="D73">
@@ -19173,7 +19317,7 @@
       <c r="B74" t="s">
         <v>683</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="13">
         <v>44580</v>
       </c>
       <c r="D74">
@@ -19226,7 +19370,7 @@
       <c r="B75" t="s">
         <v>685</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="13">
         <v>44580</v>
       </c>
       <c r="D75">
@@ -19279,7 +19423,7 @@
       <c r="B76" t="s">
         <v>687</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="13">
         <v>44581</v>
       </c>
       <c r="D76">
@@ -19332,7 +19476,7 @@
       <c r="B77" t="s">
         <v>691</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="13">
         <v>44581</v>
       </c>
       <c r="D77">
@@ -19385,7 +19529,7 @@
       <c r="B78" t="s">
         <v>695</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="13">
         <v>44581</v>
       </c>
       <c r="D78">
@@ -19438,7 +19582,7 @@
       <c r="B79" t="s">
         <v>700</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="13">
         <v>44581</v>
       </c>
       <c r="D79">
@@ -19491,7 +19635,7 @@
       <c r="B80" t="s">
         <v>702</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="13">
         <v>44582</v>
       </c>
       <c r="D80">
@@ -19544,7 +19688,7 @@
       <c r="B81" t="s">
         <v>706</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="13">
         <v>44582</v>
       </c>
       <c r="D81">
@@ -19597,7 +19741,7 @@
       <c r="B82" t="s">
         <v>710</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="13">
         <v>44582</v>
       </c>
       <c r="D82">
@@ -19650,7 +19794,7 @@
       <c r="B83" t="s">
         <v>714</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="13">
         <v>44582</v>
       </c>
       <c r="D83">
@@ -19703,7 +19847,7 @@
       <c r="B84" t="s">
         <v>716</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="13">
         <v>44582</v>
       </c>
       <c r="D84">
@@ -19756,7 +19900,7 @@
       <c r="B85" t="s">
         <v>718</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="13">
         <v>44583</v>
       </c>
       <c r="D85">
@@ -19809,7 +19953,7 @@
       <c r="B86" t="s">
         <v>720</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="13">
         <v>44583</v>
       </c>
       <c r="D86">
@@ -19862,7 +20006,7 @@
       <c r="B87" t="s">
         <v>724</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="13">
         <v>44583</v>
       </c>
       <c r="D87">
@@ -19915,7 +20059,7 @@
       <c r="B88" t="s">
         <v>726</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="13">
         <v>44583</v>
       </c>
       <c r="D88">
@@ -19968,7 +20112,7 @@
       <c r="B89" t="s">
         <v>728</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="13">
         <v>44583</v>
       </c>
       <c r="D89">
@@ -20021,7 +20165,7 @@
       <c r="B90" t="s">
         <v>730</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="13">
         <v>44583</v>
       </c>
       <c r="D90">
@@ -20074,7 +20218,7 @@
       <c r="B91" t="s">
         <v>732</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="13">
         <v>44584</v>
       </c>
       <c r="D91">
@@ -20127,7 +20271,7 @@
       <c r="B92" t="s">
         <v>734</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="13">
         <v>44584</v>
       </c>
       <c r="D92">
@@ -20180,7 +20324,7 @@
       <c r="B93" t="s">
         <v>736</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="13">
         <v>44585</v>
       </c>
       <c r="D93">
@@ -20233,7 +20377,7 @@
       <c r="B94" t="s">
         <v>741</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="13">
         <v>44585</v>
       </c>
       <c r="D94">
@@ -20286,7 +20430,7 @@
       <c r="B95" t="s">
         <v>743</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="13">
         <v>44585</v>
       </c>
       <c r="D95">
@@ -20339,7 +20483,7 @@
       <c r="B96" t="s">
         <v>748</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="13">
         <v>44585</v>
       </c>
       <c r="D96">
@@ -20392,7 +20536,7 @@
       <c r="B97" t="s">
         <v>752</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="13">
         <v>44586</v>
       </c>
       <c r="D97">
@@ -20445,7 +20589,7 @@
       <c r="B98" t="s">
         <v>757</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="13">
         <v>44586</v>
       </c>
       <c r="D98">
@@ -20498,7 +20642,7 @@
       <c r="B99" t="s">
         <v>759</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="13">
         <v>44586</v>
       </c>
       <c r="D99">
@@ -20551,7 +20695,7 @@
       <c r="B100" t="s">
         <v>764</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="13">
         <v>44586</v>
       </c>
       <c r="D100">
@@ -20604,7 +20748,7 @@
       <c r="B101" t="s">
         <v>766</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="13">
         <v>44586</v>
       </c>
       <c r="D101">
@@ -20657,7 +20801,7 @@
       <c r="B102" t="s">
         <v>770</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="13">
         <v>44586</v>
       </c>
       <c r="D102">
@@ -20710,7 +20854,7 @@
       <c r="B103" t="s">
         <v>774</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="13">
         <v>44587</v>
       </c>
       <c r="D103">
@@ -20763,7 +20907,7 @@
       <c r="B104" t="s">
         <v>778</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="13">
         <v>44587</v>
       </c>
       <c r="D104">
@@ -20816,7 +20960,7 @@
       <c r="B105" t="s">
         <v>780</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="13">
         <v>44588</v>
       </c>
       <c r="D105">
@@ -20869,7 +21013,7 @@
       <c r="B106" t="s">
         <v>784</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="13">
         <v>44588</v>
       </c>
       <c r="D106">
@@ -20922,7 +21066,7 @@
       <c r="B107" t="s">
         <v>789</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="13">
         <v>44588</v>
       </c>
       <c r="D107">
@@ -20975,7 +21119,7 @@
       <c r="B108" t="s">
         <v>791</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="13">
         <v>44588</v>
       </c>
       <c r="D108">
@@ -21028,7 +21172,7 @@
       <c r="B109" t="s">
         <v>795</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="13">
         <v>44588</v>
       </c>
       <c r="D109">
@@ -21081,7 +21225,7 @@
       <c r="B110" t="s">
         <v>797</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="13">
         <v>44588</v>
       </c>
       <c r="D110">
@@ -21134,7 +21278,7 @@
       <c r="B111" t="s">
         <v>799</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="13">
         <v>44588</v>
       </c>
       <c r="D111">
@@ -21187,7 +21331,7 @@
       <c r="B112" t="s">
         <v>801</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="13">
         <v>44588</v>
       </c>
       <c r="D112">
@@ -21240,7 +21384,7 @@
       <c r="B113" t="s">
         <v>803</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="13">
         <v>44589</v>
       </c>
       <c r="D113">
@@ -21293,7 +21437,7 @@
       <c r="B114" t="s">
         <v>807</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="13">
         <v>44591</v>
       </c>
       <c r="D114">
@@ -21346,7 +21490,7 @@
       <c r="B115" t="s">
         <v>811</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="13">
         <v>44591</v>
       </c>
       <c r="D115">
@@ -21399,7 +21543,7 @@
       <c r="B116" t="s">
         <v>813</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="13">
         <v>44592</v>
       </c>
       <c r="D116">
@@ -21452,7 +21596,7 @@
       <c r="B117" t="s">
         <v>817</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="13">
         <v>44592</v>
       </c>
       <c r="D117">
@@ -21505,7 +21649,7 @@
       <c r="B118" t="s">
         <v>819</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="13">
         <v>44593</v>
       </c>
       <c r="D118">
@@ -21558,7 +21702,7 @@
       <c r="B119" t="s">
         <v>823</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="13">
         <v>44593</v>
       </c>
       <c r="D119">
@@ -21611,7 +21755,7 @@
       <c r="B120" t="s">
         <v>825</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="13">
         <v>44593</v>
       </c>
       <c r="D120">
@@ -21664,7 +21808,7 @@
       <c r="B121" t="s">
         <v>829</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="13">
         <v>44595</v>
       </c>
       <c r="D121">
@@ -21717,7 +21861,7 @@
       <c r="B122" t="s">
         <v>833</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="13">
         <v>44595</v>
       </c>
       <c r="D122">
@@ -21770,7 +21914,7 @@
       <c r="B123" t="s">
         <v>835</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="13">
         <v>44596</v>
       </c>
       <c r="D123">
@@ -21823,7 +21967,7 @@
       <c r="B124" t="s">
         <v>839</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="13">
         <v>44596</v>
       </c>
       <c r="D124">
@@ -21876,7 +22020,7 @@
       <c r="B125" t="s">
         <v>843</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125" s="13">
         <v>44597</v>
       </c>
       <c r="D125">
@@ -21929,7 +22073,7 @@
       <c r="B126" t="s">
         <v>848</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="13">
         <v>44597</v>
       </c>
       <c r="D126">
@@ -21982,7 +22126,7 @@
       <c r="B127" t="s">
         <v>852</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127" s="13">
         <v>44597</v>
       </c>
       <c r="D127">
@@ -22035,7 +22179,7 @@
       <c r="B128" t="s">
         <v>857</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="13">
         <v>44599</v>
       </c>
       <c r="D128">
@@ -22088,7 +22232,7 @@
       <c r="B129" t="s">
         <v>861</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="13">
         <v>44599</v>
       </c>
       <c r="D129">
@@ -22141,7 +22285,7 @@
       <c r="B130" t="s">
         <v>865</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="13">
         <v>44599</v>
       </c>
       <c r="D130">
@@ -22194,7 +22338,7 @@
       <c r="B131" t="s">
         <v>867</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131" s="13">
         <v>44599</v>
       </c>
       <c r="D131">
@@ -22247,7 +22391,7 @@
       <c r="B132" t="s">
         <v>872</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132" s="13">
         <v>44599</v>
       </c>
       <c r="D132">
@@ -22300,7 +22444,7 @@
       <c r="B133" t="s">
         <v>874</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133" s="13">
         <v>44599</v>
       </c>
       <c r="D133">
@@ -22353,7 +22497,7 @@
       <c r="B134" t="s">
         <v>878</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134" s="13">
         <v>44599</v>
       </c>
       <c r="D134">
@@ -22406,7 +22550,7 @@
       <c r="B135" t="s">
         <v>880</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="13">
         <v>44599</v>
       </c>
       <c r="D135">
@@ -22459,7 +22603,7 @@
       <c r="B136" t="s">
         <v>882</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="13">
         <v>44599</v>
       </c>
       <c r="D136">
@@ -22512,7 +22656,7 @@
       <c r="B137" t="s">
         <v>886</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="13">
         <v>44599</v>
       </c>
       <c r="D137">
@@ -22565,7 +22709,7 @@
       <c r="B138" t="s">
         <v>891</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="13">
         <v>44599</v>
       </c>
       <c r="D138">
@@ -22618,7 +22762,7 @@
       <c r="B139" t="s">
         <v>895</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="13">
         <v>44599</v>
       </c>
       <c r="D139">
@@ -22671,7 +22815,7 @@
       <c r="B140" t="s">
         <v>897</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="13">
         <v>44599</v>
       </c>
       <c r="D140">
@@ -22724,7 +22868,7 @@
       <c r="B141" t="s">
         <v>901</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="13">
         <v>44599</v>
       </c>
       <c r="D141">
@@ -22777,7 +22921,7 @@
       <c r="B142" t="s">
         <v>905</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="13">
         <v>44599</v>
       </c>
       <c r="D142">
@@ -22830,7 +22974,7 @@
       <c r="B143" t="s">
         <v>909</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="13">
         <v>44599</v>
       </c>
       <c r="D143">
@@ -22883,7 +23027,7 @@
       <c r="B144" t="s">
         <v>911</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144" s="13">
         <v>44599</v>
       </c>
       <c r="D144">
@@ -22936,7 +23080,7 @@
       <c r="B145" t="s">
         <v>913</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145" s="13">
         <v>44599</v>
       </c>
       <c r="D145">
@@ -22989,7 +23133,7 @@
       <c r="B146" t="s">
         <v>915</v>
       </c>
-      <c r="C146" s="3">
+      <c r="C146" s="13">
         <v>44599</v>
       </c>
       <c r="D146">
@@ -23042,7 +23186,7 @@
       <c r="B147" t="s">
         <v>917</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C147" s="13">
         <v>44600</v>
       </c>
       <c r="D147">
@@ -23095,7 +23239,7 @@
       <c r="B148" t="s">
         <v>921</v>
       </c>
-      <c r="C148" s="3">
+      <c r="C148" s="13">
         <v>44600</v>
       </c>
       <c r="D148">
@@ -23148,7 +23292,7 @@
       <c r="B149" t="s">
         <v>926</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149" s="13">
         <v>44601</v>
       </c>
       <c r="D149">
@@ -23201,7 +23345,7 @@
       <c r="B150" t="s">
         <v>930</v>
       </c>
-      <c r="C150" s="3">
+      <c r="C150" s="13">
         <v>44601</v>
       </c>
       <c r="D150">
@@ -23254,7 +23398,7 @@
       <c r="B151" t="s">
         <v>934</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C151" s="13">
         <v>44601</v>
       </c>
       <c r="D151">
@@ -23307,7 +23451,7 @@
       <c r="B152" t="s">
         <v>938</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C152" s="13">
         <v>44601</v>
       </c>
       <c r="D152">
@@ -23360,7 +23504,7 @@
       <c r="B153" t="s">
         <v>942</v>
       </c>
-      <c r="C153" s="3">
+      <c r="C153" s="13">
         <v>44601</v>
       </c>
       <c r="D153">
@@ -23413,7 +23557,7 @@
       <c r="B154" t="s">
         <v>944</v>
       </c>
-      <c r="C154" s="3">
+      <c r="C154" s="13">
         <v>44601</v>
       </c>
       <c r="D154">
@@ -23466,7 +23610,7 @@
       <c r="B155" t="s">
         <v>949</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C155" s="13">
         <v>44601</v>
       </c>
       <c r="D155">
@@ -23519,7 +23663,7 @@
       <c r="B156" t="s">
         <v>951</v>
       </c>
-      <c r="C156" s="3">
+      <c r="C156" s="13">
         <v>44601</v>
       </c>
       <c r="D156">
@@ -23572,7 +23716,7 @@
       <c r="B157" t="s">
         <v>953</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157" s="13">
         <v>44601</v>
       </c>
       <c r="D157">
@@ -23625,7 +23769,7 @@
       <c r="B158" t="s">
         <v>955</v>
       </c>
-      <c r="C158" s="3">
+      <c r="C158" s="13">
         <v>44601</v>
       </c>
       <c r="D158">
@@ -23678,7 +23822,7 @@
       <c r="B159" t="s">
         <v>957</v>
       </c>
-      <c r="C159" s="3">
+      <c r="C159" s="13">
         <v>44601</v>
       </c>
       <c r="D159">
@@ -23731,7 +23875,7 @@
       <c r="B160" t="s">
         <v>959</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C160" s="13">
         <v>44601</v>
       </c>
       <c r="D160">
@@ -23784,7 +23928,7 @@
       <c r="B161" t="s">
         <v>961</v>
       </c>
-      <c r="C161" s="3">
+      <c r="C161" s="13">
         <v>44601</v>
       </c>
       <c r="D161">
@@ -23837,7 +23981,7 @@
       <c r="B162" t="s">
         <v>963</v>
       </c>
-      <c r="C162" s="3">
+      <c r="C162" s="13">
         <v>44601</v>
       </c>
       <c r="D162">
@@ -23890,7 +24034,7 @@
       <c r="B163" t="s">
         <v>965</v>
       </c>
-      <c r="C163" s="3">
+      <c r="C163" s="13">
         <v>44601</v>
       </c>
       <c r="D163">
@@ -23943,7 +24087,7 @@
       <c r="B164" t="s">
         <v>968</v>
       </c>
-      <c r="C164" s="3">
+      <c r="C164" s="13">
         <v>44602</v>
       </c>
       <c r="D164">
@@ -23996,7 +24140,7 @@
       <c r="B165" t="s">
         <v>972</v>
       </c>
-      <c r="C165" s="3">
+      <c r="C165" s="13">
         <v>44602</v>
       </c>
       <c r="D165">
@@ -24049,7 +24193,7 @@
       <c r="B166" t="s">
         <v>976</v>
       </c>
-      <c r="C166" s="3">
+      <c r="C166" s="13">
         <v>44602</v>
       </c>
       <c r="D166">
@@ -24102,7 +24246,7 @@
       <c r="B167" t="s">
         <v>978</v>
       </c>
-      <c r="C167" s="3">
+      <c r="C167" s="13">
         <v>44602</v>
       </c>
       <c r="D167">
@@ -24155,7 +24299,7 @@
       <c r="B168" t="s">
         <v>980</v>
       </c>
-      <c r="C168" s="3">
+      <c r="C168" s="13">
         <v>44602</v>
       </c>
       <c r="D168">
@@ -24208,7 +24352,7 @@
       <c r="B169" t="s">
         <v>982</v>
       </c>
-      <c r="C169" s="3">
+      <c r="C169" s="13">
         <v>44602</v>
       </c>
       <c r="D169">
@@ -24261,7 +24405,7 @@
       <c r="B170" t="s">
         <v>984</v>
       </c>
-      <c r="C170" s="3">
+      <c r="C170" s="13">
         <v>44602</v>
       </c>
       <c r="D170">
@@ -24314,7 +24458,7 @@
       <c r="B171" t="s">
         <v>986</v>
       </c>
-      <c r="C171" s="3">
+      <c r="C171" s="13">
         <v>44602</v>
       </c>
       <c r="D171">
@@ -24367,7 +24511,7 @@
       <c r="B172" t="s">
         <v>988</v>
       </c>
-      <c r="C172" s="3">
+      <c r="C172" s="13">
         <v>44602</v>
       </c>
       <c r="D172">
@@ -24420,7 +24564,7 @@
       <c r="B173" t="s">
         <v>992</v>
       </c>
-      <c r="C173" s="3">
+      <c r="C173" s="13">
         <v>44602</v>
       </c>
       <c r="D173">
@@ -24473,7 +24617,7 @@
       <c r="B174" t="s">
         <v>994</v>
       </c>
-      <c r="C174" s="3">
+      <c r="C174" s="13">
         <v>44602</v>
       </c>
       <c r="D174">
@@ -24526,7 +24670,7 @@
       <c r="B175" t="s">
         <v>996</v>
       </c>
-      <c r="C175" s="3">
+      <c r="C175" s="13">
         <v>44603</v>
       </c>
       <c r="D175">
@@ -24579,7 +24723,7 @@
       <c r="B176" t="s">
         <v>999</v>
       </c>
-      <c r="C176" s="3">
+      <c r="C176" s="13">
         <v>44603</v>
       </c>
       <c r="D176">
@@ -24632,7 +24776,7 @@
       <c r="B177" t="s">
         <v>1004</v>
       </c>
-      <c r="C177" s="3">
+      <c r="C177" s="13">
         <v>44603</v>
       </c>
       <c r="D177">
@@ -24685,7 +24829,7 @@
       <c r="B178" t="s">
         <v>1008</v>
       </c>
-      <c r="C178" s="3">
+      <c r="C178" s="13">
         <v>44603</v>
       </c>
       <c r="D178">
@@ -24738,7 +24882,7 @@
       <c r="B179" t="s">
         <v>1010</v>
       </c>
-      <c r="C179" s="3">
+      <c r="C179" s="13">
         <v>44603</v>
       </c>
       <c r="D179">
@@ -24791,7 +24935,7 @@
       <c r="B180" t="s">
         <v>1014</v>
       </c>
-      <c r="C180" s="3">
+      <c r="C180" s="13">
         <v>44604</v>
       </c>
       <c r="D180">
@@ -24844,7 +24988,7 @@
       <c r="B181" t="s">
         <v>1016</v>
       </c>
-      <c r="C181" s="3">
+      <c r="C181" s="13">
         <v>44604</v>
       </c>
       <c r="D181">
@@ -24897,7 +25041,7 @@
       <c r="B182" t="s">
         <v>1021</v>
       </c>
-      <c r="C182" s="3">
+      <c r="C182" s="13">
         <v>44604</v>
       </c>
       <c r="D182">
@@ -24950,7 +25094,7 @@
       <c r="B183" t="s">
         <v>1023</v>
       </c>
-      <c r="C183" s="3">
+      <c r="C183" s="13">
         <v>44604</v>
       </c>
       <c r="D183">
@@ -25003,7 +25147,7 @@
       <c r="B184" t="s">
         <v>1025</v>
       </c>
-      <c r="C184" s="3">
+      <c r="C184" s="13">
         <v>44605</v>
       </c>
       <c r="D184">
@@ -25056,7 +25200,7 @@
       <c r="B185" t="s">
         <v>1029</v>
       </c>
-      <c r="C185" s="3">
+      <c r="C185" s="13">
         <v>44605</v>
       </c>
       <c r="D185">
@@ -25109,7 +25253,7 @@
       <c r="B186" t="s">
         <v>1031</v>
       </c>
-      <c r="C186" s="3">
+      <c r="C186" s="13">
         <v>44605</v>
       </c>
       <c r="D186">
@@ -25162,7 +25306,7 @@
       <c r="B187" t="s">
         <v>1033</v>
       </c>
-      <c r="C187" s="3">
+      <c r="C187" s="13">
         <v>44606</v>
       </c>
       <c r="D187">
@@ -25215,7 +25359,7 @@
       <c r="B188" t="s">
         <v>1037</v>
       </c>
-      <c r="C188" s="3">
+      <c r="C188" s="13">
         <v>44606</v>
       </c>
       <c r="D188">
@@ -25268,7 +25412,7 @@
       <c r="B189" t="s">
         <v>1039</v>
       </c>
-      <c r="C189" s="3">
+      <c r="C189" s="13">
         <v>44606</v>
       </c>
       <c r="D189">
@@ -25321,7 +25465,7 @@
       <c r="B190" t="s">
         <v>1044</v>
       </c>
-      <c r="C190" s="3">
+      <c r="C190" s="13">
         <v>44606</v>
       </c>
       <c r="D190">
@@ -25374,7 +25518,7 @@
       <c r="B191" t="s">
         <v>1046</v>
       </c>
-      <c r="C191" s="3">
+      <c r="C191" s="13">
         <v>44606</v>
       </c>
       <c r="D191">
@@ -25427,7 +25571,7 @@
       <c r="B192" t="s">
         <v>1050</v>
       </c>
-      <c r="C192" s="3">
+      <c r="C192" s="13">
         <v>44606</v>
       </c>
       <c r="D192">
@@ -25480,7 +25624,7 @@
       <c r="B193" t="s">
         <v>1052</v>
       </c>
-      <c r="C193" s="3">
+      <c r="C193" s="13">
         <v>44606</v>
       </c>
       <c r="D193">
@@ -25533,7 +25677,7 @@
       <c r="B194" t="s">
         <v>1054</v>
       </c>
-      <c r="C194" s="3">
+      <c r="C194" s="13">
         <v>44606</v>
       </c>
       <c r="D194">
@@ -25586,7 +25730,7 @@
       <c r="B195" t="s">
         <v>1056</v>
       </c>
-      <c r="C195" s="3">
+      <c r="C195" s="13">
         <v>44607</v>
       </c>
       <c r="D195">
@@ -25639,7 +25783,7 @@
       <c r="B196" t="s">
         <v>1060</v>
       </c>
-      <c r="C196" s="3">
+      <c r="C196" s="13">
         <v>44607</v>
       </c>
       <c r="D196">
@@ -25692,7 +25836,7 @@
       <c r="B197" t="s">
         <v>1064</v>
       </c>
-      <c r="C197" s="3">
+      <c r="C197" s="13">
         <v>44607</v>
       </c>
       <c r="D197">
@@ -25745,7 +25889,7 @@
       <c r="B198" t="s">
         <v>1068</v>
       </c>
-      <c r="C198" s="3">
+      <c r="C198" s="13">
         <v>44607</v>
       </c>
       <c r="D198">
@@ -25798,7 +25942,7 @@
       <c r="B199" t="s">
         <v>1073</v>
       </c>
-      <c r="C199" s="3">
+      <c r="C199" s="13">
         <v>44607</v>
       </c>
       <c r="D199">
@@ -25851,7 +25995,7 @@
       <c r="B200" t="s">
         <v>1075</v>
       </c>
-      <c r="C200" s="3">
+      <c r="C200" s="13">
         <v>44607</v>
       </c>
       <c r="D200">
@@ -25904,7 +26048,7 @@
       <c r="B201" t="s">
         <v>1077</v>
       </c>
-      <c r="C201" s="3">
+      <c r="C201" s="13">
         <v>44607</v>
       </c>
       <c r="D201">
@@ -25957,7 +26101,7 @@
       <c r="B202" t="s">
         <v>1081</v>
       </c>
-      <c r="C202" s="3">
+      <c r="C202" s="13">
         <v>44607</v>
       </c>
       <c r="D202">
@@ -26010,7 +26154,7 @@
       <c r="B203" t="s">
         <v>1085</v>
       </c>
-      <c r="C203" s="3">
+      <c r="C203" s="13">
         <v>44607</v>
       </c>
       <c r="D203">
@@ -26063,7 +26207,7 @@
       <c r="B204" t="s">
         <v>1087</v>
       </c>
-      <c r="C204" s="3">
+      <c r="C204" s="13">
         <v>44607</v>
       </c>
       <c r="D204">
@@ -26116,7 +26260,7 @@
       <c r="B205" t="s">
         <v>1089</v>
       </c>
-      <c r="C205" s="3">
+      <c r="C205" s="13">
         <v>44607</v>
       </c>
       <c r="D205">
@@ -26169,7 +26313,7 @@
       <c r="B206" t="s">
         <v>1091</v>
       </c>
-      <c r="C206" s="3">
+      <c r="C206" s="13">
         <v>44607</v>
       </c>
       <c r="D206">
@@ -26222,7 +26366,7 @@
       <c r="B207" t="s">
         <v>1093</v>
       </c>
-      <c r="C207" s="3">
+      <c r="C207" s="13">
         <v>44607</v>
       </c>
       <c r="D207">
@@ -26275,7 +26419,7 @@
       <c r="B208" t="s">
         <v>1095</v>
       </c>
-      <c r="C208" s="3">
+      <c r="C208" s="13">
         <v>44607</v>
       </c>
       <c r="D208">
@@ -26328,7 +26472,7 @@
       <c r="B209" t="s">
         <v>1099</v>
       </c>
-      <c r="C209" s="3">
+      <c r="C209" s="13">
         <v>44608</v>
       </c>
       <c r="D209">
@@ -26381,7 +26525,7 @@
       <c r="B210" t="s">
         <v>1101</v>
       </c>
-      <c r="C210" s="3">
+      <c r="C210" s="13">
         <v>44608</v>
       </c>
       <c r="D210">
@@ -26434,7 +26578,7 @@
       <c r="B211" t="s">
         <v>1103</v>
       </c>
-      <c r="C211" s="3">
+      <c r="C211" s="13">
         <v>44608</v>
       </c>
       <c r="D211">
@@ -26487,7 +26631,7 @@
       <c r="B212" t="s">
         <v>1105</v>
       </c>
-      <c r="C212" s="3">
+      <c r="C212" s="13">
         <v>44608</v>
       </c>
       <c r="D212">
@@ -26540,7 +26684,7 @@
       <c r="B213" t="s">
         <v>1107</v>
       </c>
-      <c r="C213" s="3">
+      <c r="C213" s="13">
         <v>44608</v>
       </c>
       <c r="D213">
@@ -26593,7 +26737,7 @@
       <c r="B214" t="s">
         <v>1111</v>
       </c>
-      <c r="C214" s="3">
+      <c r="C214" s="13">
         <v>44608</v>
       </c>
       <c r="D214">
@@ -26646,7 +26790,7 @@
       <c r="B215" t="s">
         <v>1115</v>
       </c>
-      <c r="C215" s="3">
+      <c r="C215" s="13">
         <v>44608</v>
       </c>
       <c r="D215">
@@ -26699,7 +26843,7 @@
       <c r="B216" t="s">
         <v>1119</v>
       </c>
-      <c r="C216" s="3">
+      <c r="C216" s="13">
         <v>44608</v>
       </c>
       <c r="D216">
@@ -26752,7 +26896,7 @@
       <c r="B217" t="s">
         <v>1123</v>
       </c>
-      <c r="C217" s="3">
+      <c r="C217" s="13">
         <v>44608</v>
       </c>
       <c r="D217">
@@ -26805,7 +26949,7 @@
       <c r="B218" t="s">
         <v>1127</v>
       </c>
-      <c r="C218" s="3">
+      <c r="C218" s="13">
         <v>44608</v>
       </c>
       <c r="D218">
@@ -26858,7 +27002,7 @@
       <c r="B219" t="s">
         <v>1131</v>
       </c>
-      <c r="C219" s="3">
+      <c r="C219" s="13">
         <v>44608</v>
       </c>
       <c r="D219">
@@ -26911,7 +27055,7 @@
       <c r="B220" t="s">
         <v>1135</v>
       </c>
-      <c r="C220" s="3">
+      <c r="C220" s="13">
         <v>44608</v>
       </c>
       <c r="D220">
@@ -26964,7 +27108,7 @@
       <c r="B221" t="s">
         <v>1137</v>
       </c>
-      <c r="C221" s="3">
+      <c r="C221" s="13">
         <v>44608</v>
       </c>
       <c r="D221">
@@ -27017,7 +27161,7 @@
       <c r="B222" t="s">
         <v>1139</v>
       </c>
-      <c r="C222" s="3">
+      <c r="C222" s="13">
         <v>44608</v>
       </c>
       <c r="D222">
@@ -27070,7 +27214,7 @@
       <c r="B223" t="s">
         <v>1141</v>
       </c>
-      <c r="C223" s="3">
+      <c r="C223" s="13">
         <v>44608</v>
       </c>
       <c r="D223">
@@ -27123,7 +27267,7 @@
       <c r="B224" t="s">
         <v>1143</v>
       </c>
-      <c r="C224" s="3">
+      <c r="C224" s="13">
         <v>44608</v>
       </c>
       <c r="D224">
@@ -27176,7 +27320,7 @@
       <c r="B225" t="s">
         <v>1145</v>
       </c>
-      <c r="C225" s="3">
+      <c r="C225" s="13">
         <v>44608</v>
       </c>
       <c r="D225">
@@ -27229,7 +27373,7 @@
       <c r="B226" t="s">
         <v>1147</v>
       </c>
-      <c r="C226" s="3">
+      <c r="C226" s="13">
         <v>44608</v>
       </c>
       <c r="D226">
@@ -27282,7 +27426,7 @@
       <c r="B227" t="s">
         <v>1149</v>
       </c>
-      <c r="C227" s="3">
+      <c r="C227" s="13">
         <v>44608</v>
       </c>
       <c r="D227">
@@ -27335,7 +27479,7 @@
       <c r="B228" t="s">
         <v>1151</v>
       </c>
-      <c r="C228" s="3">
+      <c r="C228" s="13">
         <v>44609</v>
       </c>
       <c r="D228">
@@ -27587,7 +27731,7 @@
       <c r="D2" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="13">
         <v>44896</v>
       </c>
       <c r="F2" t="s">
@@ -27712,7 +27856,7 @@
       <c r="D3" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="13">
         <v>44896</v>
       </c>
       <c r="F3" t="s">
@@ -27837,7 +27981,7 @@
       <c r="D4" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="13">
         <v>44653</v>
       </c>
       <c r="F4" t="s">
@@ -27885,7 +28029,7 @@
       <c r="U4" t="s">
         <v>91</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="13">
         <v>44836</v>
       </c>
       <c r="X4" t="s">
@@ -27962,7 +28106,7 @@
       <c r="D5" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="13">
         <v>44653</v>
       </c>
       <c r="F5" t="s">
@@ -28010,7 +28154,7 @@
       <c r="U5" t="s">
         <v>91</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5" s="13">
         <v>44836</v>
       </c>
       <c r="X5" t="s">
@@ -28087,7 +28231,7 @@
       <c r="D6" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="13">
         <v>44744</v>
       </c>
       <c r="F6" t="s">
@@ -28135,7 +28279,7 @@
       <c r="U6" t="s">
         <v>101</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="13">
         <v>44836</v>
       </c>
       <c r="X6" t="s">
@@ -28212,7 +28356,7 @@
       <c r="D7" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="13">
         <v>44744</v>
       </c>
       <c r="F7" t="s">
@@ -28260,7 +28404,7 @@
       <c r="U7" t="s">
         <v>109</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="13">
         <v>44836</v>
       </c>
       <c r="X7" t="s">
@@ -28331,7 +28475,7 @@
       <c r="D8" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="13">
         <v>44653</v>
       </c>
       <c r="F8" t="s">
@@ -28373,19 +28517,19 @@
       <c r="R8" t="s">
         <v>115</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="13">
         <v>44776</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="13">
         <v>44776</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="13">
         <v>44654</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="13">
         <v>44837</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="13">
         <v>44837</v>
       </c>
       <c r="Z8" t="s">
@@ -28456,7 +28600,7 @@
       <c r="D9" t="s">
         <v>120</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="13">
         <v>44621</v>
       </c>
       <c r="F9" t="s">
@@ -28504,7 +28648,7 @@
       <c r="U9" t="s">
         <v>125</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="13">
         <v>44652</v>
       </c>
       <c r="X9" t="s">
@@ -28581,7 +28725,7 @@
       <c r="D10" t="s">
         <v>120</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="13">
         <v>44621</v>
       </c>
       <c r="F10" t="s">
@@ -28629,7 +28773,7 @@
       <c r="U10" t="s">
         <v>125</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="13">
         <v>44652</v>
       </c>
       <c r="X10" t="s">
@@ -28754,7 +28898,7 @@
       <c r="U11" t="s">
         <v>137</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="13">
         <v>44622</v>
       </c>
       <c r="X11" t="s">
@@ -28879,7 +29023,7 @@
       <c r="U12" t="s">
         <v>137</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12" s="13">
         <v>44622</v>
       </c>
       <c r="X12" t="s">
@@ -28995,16 +29139,16 @@
       <c r="T13" t="s">
         <v>72</v>
       </c>
-      <c r="U13" s="3">
+      <c r="U13" s="13">
         <v>44595</v>
       </c>
       <c r="W13" t="s">
         <v>147</v>
       </c>
-      <c r="X13" s="3">
+      <c r="X13" s="13">
         <v>44595</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="Y13" s="13">
         <v>44595</v>
       </c>
       <c r="Z13" t="s">
@@ -29114,16 +29258,16 @@
       <c r="T14" t="s">
         <v>72</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="13">
         <v>44595</v>
       </c>
       <c r="W14" t="s">
         <v>147</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="13">
         <v>44595</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="13">
         <v>44595</v>
       </c>
       <c r="Z14" t="s">
@@ -29319,7 +29463,7 @@
       <c r="D16" t="s">
         <v>162</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="13">
         <v>44896</v>
       </c>
       <c r="F16" t="s">
@@ -29444,7 +29588,7 @@
       <c r="D17" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="13">
         <v>44896</v>
       </c>
       <c r="F17" t="s">
@@ -30099,7 +30243,7 @@
       <c r="U22" t="s">
         <v>74</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="13">
         <v>44622</v>
       </c>
       <c r="X22" t="s">
@@ -30218,7 +30362,7 @@
       <c r="U23" t="s">
         <v>74</v>
       </c>
-      <c r="W23" s="3">
+      <c r="W23" s="13">
         <v>44622</v>
       </c>
       <c r="X23" t="s">
@@ -30289,7 +30433,7 @@
       <c r="D24" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="13">
         <v>44775</v>
       </c>
       <c r="F24" t="s">
@@ -30408,7 +30552,7 @@
       <c r="D25" t="s">
         <v>195</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="13">
         <v>44775</v>
       </c>
       <c r="F25" t="s">
@@ -30533,7 +30677,7 @@
       <c r="D26" t="s">
         <v>204</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="13">
         <v>44652</v>
       </c>
       <c r="F26" t="s">
@@ -30575,13 +30719,13 @@
       <c r="R26" t="s">
         <v>115</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="13">
         <v>44775</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26" s="13">
         <v>44775</v>
       </c>
-      <c r="W26" s="3">
+      <c r="W26" s="13">
         <v>44563</v>
       </c>
       <c r="X26" t="s">
@@ -30700,13 +30844,13 @@
       <c r="R27" t="s">
         <v>115</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T27" s="13">
         <v>44744</v>
       </c>
       <c r="U27" t="s">
         <v>71</v>
       </c>
-      <c r="W27" s="3">
+      <c r="W27" s="13">
         <v>44622</v>
       </c>
       <c r="X27" t="s">
@@ -30783,7 +30927,7 @@
       <c r="D28" t="s">
         <v>214</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="13">
         <v>44653</v>
       </c>
       <c r="F28" t="s">
@@ -30831,7 +30975,7 @@
       <c r="U28" t="s">
         <v>91</v>
       </c>
-      <c r="W28" s="3">
+      <c r="W28" s="13">
         <v>44836</v>
       </c>
       <c r="X28" t="s">
@@ -30908,7 +31052,7 @@
       <c r="D29" t="s">
         <v>214</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="13">
         <v>44653</v>
       </c>
       <c r="F29" t="s">
@@ -30956,7 +31100,7 @@
       <c r="U29" t="s">
         <v>91</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="13">
         <v>44836</v>
       </c>
       <c r="X29" t="s">
@@ -31033,7 +31177,7 @@
       <c r="D30" t="s">
         <v>222</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="13">
         <v>44593</v>
       </c>
       <c r="F30" t="s">
@@ -31075,13 +31219,13 @@
       <c r="R30" t="s">
         <v>115</v>
       </c>
-      <c r="T30" s="3">
+      <c r="T30" s="13">
         <v>44744</v>
       </c>
-      <c r="U30" s="3">
+      <c r="U30" s="13">
         <v>44744</v>
       </c>
-      <c r="W30" s="3">
+      <c r="W30" s="13">
         <v>44594</v>
       </c>
       <c r="X30" t="s">
@@ -31283,7 +31427,7 @@
       <c r="D32" t="s">
         <v>236</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="13">
         <v>44896</v>
       </c>
       <c r="F32" t="s">
@@ -31646,7 +31790,7 @@
       <c r="D35" t="s">
         <v>260</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="13">
         <v>44896</v>
       </c>
       <c r="F35" t="s">
@@ -31688,19 +31832,19 @@
       <c r="R35" t="s">
         <v>154</v>
       </c>
-      <c r="T35" s="3">
+      <c r="T35" s="13">
         <v>44653</v>
       </c>
-      <c r="U35" s="3">
+      <c r="U35" s="13">
         <v>44653</v>
       </c>
       <c r="W35" t="s">
         <v>183</v>
       </c>
-      <c r="X35" s="3">
+      <c r="X35" s="13">
         <v>44653</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="13">
         <v>44653</v>
       </c>
       <c r="Z35" t="s">
@@ -31944,7 +32088,7 @@
       <c r="U37" t="s">
         <v>283</v>
       </c>
-      <c r="W37" s="3">
+      <c r="W37" s="13">
         <v>44683</v>
       </c>
       <c r="X37" t="s">
@@ -32069,7 +32213,7 @@
       <c r="U38" t="s">
         <v>283</v>
       </c>
-      <c r="W38" s="3">
+      <c r="W38" s="13">
         <v>44683</v>
       </c>
       <c r="X38" t="s">
@@ -32194,7 +32338,7 @@
       <c r="U39" t="s">
         <v>283</v>
       </c>
-      <c r="W39" s="3">
+      <c r="W39" s="13">
         <v>44683</v>
       </c>
       <c r="X39" t="s">
@@ -32319,7 +32463,7 @@
       <c r="U40" t="s">
         <v>292</v>
       </c>
-      <c r="W40" s="3">
+      <c r="W40" s="13">
         <v>44563</v>
       </c>
       <c r="X40" t="s">
@@ -32390,7 +32534,7 @@
       <c r="D41" t="s">
         <v>295</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="13">
         <v>44867</v>
       </c>
       <c r="F41" t="s">
@@ -32640,7 +32784,7 @@
       <c r="D43" t="s">
         <v>309</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="13">
         <v>44682</v>
       </c>
       <c r="F43" t="s">
@@ -32688,7 +32832,7 @@
       <c r="U43" t="s">
         <v>133</v>
       </c>
-      <c r="W43" s="3">
+      <c r="W43" s="13">
         <v>44835</v>
       </c>
       <c r="X43" t="s">
@@ -32759,7 +32903,7 @@
       <c r="D44" t="s">
         <v>314</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="13">
         <v>44622</v>
       </c>
       <c r="F44" t="s">
@@ -32807,7 +32951,7 @@
       <c r="U44" t="s">
         <v>72</v>
       </c>
-      <c r="W44" s="3">
+      <c r="W44" s="13">
         <v>44867</v>
       </c>
       <c r="X44" t="s">
@@ -32884,7 +33028,7 @@
       <c r="D45" t="s">
         <v>321</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="13">
         <v>44652</v>
       </c>
       <c r="F45" t="s">
@@ -32932,7 +33076,7 @@
       <c r="U45" t="s">
         <v>324</v>
       </c>
-      <c r="W45" s="3">
+      <c r="W45" s="13">
         <v>44835</v>
       </c>
       <c r="X45" t="s">
@@ -33009,7 +33153,7 @@
       <c r="D46" t="s">
         <v>321</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="13">
         <v>44652</v>
       </c>
       <c r="F46" t="s">
@@ -33057,7 +33201,7 @@
       <c r="U46" t="s">
         <v>324</v>
       </c>
-      <c r="W46" s="3">
+      <c r="W46" s="13">
         <v>44835</v>
       </c>
       <c r="X46" t="s">
@@ -33134,7 +33278,7 @@
       <c r="D47" t="s">
         <v>329</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="13">
         <v>44713</v>
       </c>
       <c r="F47" t="s">
@@ -33176,13 +33320,13 @@
       <c r="R47" t="s">
         <v>115</v>
       </c>
-      <c r="T47" s="3">
+      <c r="T47" s="13">
         <v>44744</v>
       </c>
       <c r="U47" t="s">
         <v>71</v>
       </c>
-      <c r="W47" s="3">
+      <c r="W47" s="13">
         <v>44714</v>
       </c>
       <c r="X47" t="s">
@@ -33253,7 +33397,7 @@
       <c r="D48" t="s">
         <v>333</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="13">
         <v>44743</v>
       </c>
       <c r="F48" t="s">
@@ -33372,7 +33516,7 @@
       <c r="D49" t="s">
         <v>337</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="13">
         <v>44774</v>
       </c>
       <c r="F49" t="s">
@@ -33414,13 +33558,13 @@
       <c r="R49" t="s">
         <v>115</v>
       </c>
-      <c r="T49" s="3">
+      <c r="T49" s="13">
         <v>44622</v>
       </c>
       <c r="U49" t="s">
         <v>71</v>
       </c>
-      <c r="W49" s="3">
+      <c r="W49" s="13">
         <v>44563</v>
       </c>
       <c r="X49" t="s">
@@ -33491,7 +33635,7 @@
       <c r="D50" t="s">
         <v>337</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="13">
         <v>44774</v>
       </c>
       <c r="F50" t="s">
@@ -33533,13 +33677,13 @@
       <c r="R50" t="s">
         <v>115</v>
       </c>
-      <c r="T50" s="3">
+      <c r="T50" s="13">
         <v>44622</v>
       </c>
       <c r="U50" t="s">
         <v>71</v>
       </c>
-      <c r="W50" s="3">
+      <c r="W50" s="13">
         <v>44563</v>
       </c>
       <c r="X50" t="s">
@@ -33610,7 +33754,7 @@
       <c r="D51" t="s">
         <v>337</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="13">
         <v>44774</v>
       </c>
       <c r="F51" t="s">
@@ -33652,13 +33796,13 @@
       <c r="R51" t="s">
         <v>115</v>
       </c>
-      <c r="T51" s="3">
+      <c r="T51" s="13">
         <v>44622</v>
       </c>
       <c r="U51" t="s">
         <v>71</v>
       </c>
-      <c r="W51" s="3">
+      <c r="W51" s="13">
         <v>44563</v>
       </c>
       <c r="X51" t="s">
@@ -33729,7 +33873,7 @@
       <c r="D52" t="s">
         <v>344</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="13">
         <v>44866</v>
       </c>
       <c r="F52" t="s">
@@ -33854,7 +33998,7 @@
       <c r="D53" t="s">
         <v>352</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="13">
         <v>44896</v>
       </c>
       <c r="F53" t="s">
@@ -33902,7 +34046,7 @@
       <c r="U53" t="s">
         <v>72</v>
       </c>
-      <c r="W53" s="3">
+      <c r="W53" s="13">
         <v>44594</v>
       </c>
       <c r="X53" t="s">
@@ -33979,7 +34123,7 @@
       <c r="D54" t="s">
         <v>236</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="13">
         <v>44896</v>
       </c>
       <c r="F54" t="s">
@@ -34104,7 +34248,7 @@
       <c r="D55" t="s">
         <v>236</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="13">
         <v>44896</v>
       </c>
       <c r="F55" t="s">
@@ -34271,7 +34415,7 @@
       <c r="R56" t="s">
         <v>70</v>
       </c>
-      <c r="T56" s="3">
+      <c r="T56" s="13">
         <v>44744</v>
       </c>
       <c r="U56" t="s">
@@ -34649,16 +34793,16 @@
       <c r="T59" t="s">
         <v>387</v>
       </c>
-      <c r="U59" s="3">
+      <c r="U59" s="13">
         <v>44595</v>
       </c>
       <c r="W59" t="s">
         <v>306</v>
       </c>
-      <c r="X59" s="3">
+      <c r="X59" s="13">
         <v>44595</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="13">
         <v>44595</v>
       </c>
       <c r="Z59" t="s">
@@ -34774,16 +34918,16 @@
       <c r="T60" t="s">
         <v>387</v>
       </c>
-      <c r="U60" s="3">
+      <c r="U60" s="13">
         <v>44595</v>
       </c>
       <c r="W60" t="s">
         <v>306</v>
       </c>
-      <c r="X60" s="3">
+      <c r="X60" s="13">
         <v>44595</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="13">
         <v>44595</v>
       </c>
       <c r="Z60" t="s">
@@ -34854,7 +34998,7 @@
       <c r="D61" t="s">
         <v>390</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="13">
         <v>44744</v>
       </c>
       <c r="F61" t="s">
@@ -34902,7 +35046,7 @@
       <c r="U61" t="s">
         <v>174</v>
       </c>
-      <c r="W61" s="3">
+      <c r="W61" s="13">
         <v>44836</v>
       </c>
       <c r="X61" t="s">
@@ -34979,7 +35123,7 @@
       <c r="D62" t="s">
         <v>390</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="13">
         <v>44744</v>
       </c>
       <c r="F62" t="s">
@@ -35027,7 +35171,7 @@
       <c r="U62" t="s">
         <v>174</v>
       </c>
-      <c r="W62" s="3">
+      <c r="W62" s="13">
         <v>44836</v>
       </c>
       <c r="X62" t="s">
@@ -35104,7 +35248,7 @@
       <c r="D63" t="s">
         <v>397</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="13">
         <v>44867</v>
       </c>
       <c r="F63" t="s">
@@ -35152,7 +35296,7 @@
       <c r="U63" t="s">
         <v>109</v>
       </c>
-      <c r="W63" s="3">
+      <c r="W63" s="13">
         <v>44897</v>
       </c>
       <c r="X63" t="s">
@@ -35223,7 +35367,7 @@
       <c r="D64" t="s">
         <v>189</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="13">
         <v>44867</v>
       </c>
       <c r="F64" t="s">
@@ -35342,7 +35486,7 @@
       <c r="D65" t="s">
         <v>189</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="13">
         <v>44867</v>
       </c>
       <c r="F65" t="s">
@@ -36080,7 +36224,7 @@
       <c r="D71" t="s">
         <v>418</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="13">
         <v>44621</v>
       </c>
       <c r="F71" t="s">
@@ -36128,7 +36272,7 @@
       <c r="U71" t="s">
         <v>306</v>
       </c>
-      <c r="W71" s="3">
+      <c r="W71" s="13">
         <v>44835</v>
       </c>
       <c r="X71" t="s">
@@ -36205,7 +36349,7 @@
       <c r="D72" t="s">
         <v>418</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="13">
         <v>44621</v>
       </c>
       <c r="F72" t="s">
@@ -36253,7 +36397,7 @@
       <c r="U72" t="s">
         <v>306</v>
       </c>
-      <c r="W72" s="3">
+      <c r="W72" s="13">
         <v>44835</v>
       </c>
       <c r="X72" t="s">
@@ -36503,7 +36647,7 @@
       <c r="U74" t="s">
         <v>138</v>
       </c>
-      <c r="W74" s="3">
+      <c r="W74" s="13">
         <v>44622</v>
       </c>
       <c r="X74" t="s">
@@ -36565,6 +36709,3294 @@
       </c>
       <c r="AR74">
         <v>4750</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5BFAC9-9B86-4BA0-B359-A3842D09A880}">
+  <dimension ref="A1:R38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C2" s="13">
+        <v>44567</v>
+      </c>
+      <c r="D2">
+        <v>2022</v>
+      </c>
+      <c r="F2" t="s">
+        <v>517</v>
+      </c>
+      <c r="G2" t="s">
+        <v>518</v>
+      </c>
+      <c r="H2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I2" t="s">
+        <v>440</v>
+      </c>
+      <c r="J2" t="s">
+        <v>519</v>
+      </c>
+      <c r="K2">
+        <v>5413.6</v>
+      </c>
+      <c r="L2">
+        <v>5413.6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>442</v>
+      </c>
+      <c r="N2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" t="s">
+        <v>443</v>
+      </c>
+      <c r="P2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C3" s="13">
+        <v>44567</v>
+      </c>
+      <c r="D3">
+        <v>2022</v>
+      </c>
+      <c r="F3" t="s">
+        <v>517</v>
+      </c>
+      <c r="G3" t="s">
+        <v>518</v>
+      </c>
+      <c r="H3" t="s">
+        <v>439</v>
+      </c>
+      <c r="I3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J3" t="s">
+        <v>519</v>
+      </c>
+      <c r="K3">
+        <v>6550</v>
+      </c>
+      <c r="L3">
+        <v>6550</v>
+      </c>
+      <c r="M3" t="s">
+        <v>442</v>
+      </c>
+      <c r="N3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" t="s">
+        <v>443</v>
+      </c>
+      <c r="P3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>856</v>
+      </c>
+      <c r="B4" t="s">
+        <v>857</v>
+      </c>
+      <c r="C4" s="13">
+        <v>44599</v>
+      </c>
+      <c r="D4">
+        <v>2022</v>
+      </c>
+      <c r="F4" t="s">
+        <v>858</v>
+      </c>
+      <c r="G4" t="s">
+        <v>859</v>
+      </c>
+      <c r="H4" t="s">
+        <v>439</v>
+      </c>
+      <c r="I4" t="s">
+        <v>440</v>
+      </c>
+      <c r="J4" t="s">
+        <v>519</v>
+      </c>
+      <c r="K4">
+        <v>1288.98</v>
+      </c>
+      <c r="L4">
+        <v>1288.98</v>
+      </c>
+      <c r="M4" t="s">
+        <v>442</v>
+      </c>
+      <c r="N4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" t="s">
+        <v>443</v>
+      </c>
+      <c r="P4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>860</v>
+      </c>
+      <c r="B5" t="s">
+        <v>861</v>
+      </c>
+      <c r="C5" s="13">
+        <v>44599</v>
+      </c>
+      <c r="D5">
+        <v>2022</v>
+      </c>
+      <c r="F5" t="s">
+        <v>862</v>
+      </c>
+      <c r="G5" t="s">
+        <v>863</v>
+      </c>
+      <c r="H5" t="s">
+        <v>439</v>
+      </c>
+      <c r="I5" t="s">
+        <v>440</v>
+      </c>
+      <c r="J5" t="s">
+        <v>519</v>
+      </c>
+      <c r="K5">
+        <v>2250</v>
+      </c>
+      <c r="L5">
+        <v>2250</v>
+      </c>
+      <c r="M5" t="s">
+        <v>442</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>443</v>
+      </c>
+      <c r="P5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>864</v>
+      </c>
+      <c r="B6" t="s">
+        <v>865</v>
+      </c>
+      <c r="C6" s="13">
+        <v>44599</v>
+      </c>
+      <c r="D6">
+        <v>2022</v>
+      </c>
+      <c r="F6" t="s">
+        <v>858</v>
+      </c>
+      <c r="G6" t="s">
+        <v>859</v>
+      </c>
+      <c r="H6" t="s">
+        <v>439</v>
+      </c>
+      <c r="I6" t="s">
+        <v>440</v>
+      </c>
+      <c r="J6" t="s">
+        <v>519</v>
+      </c>
+      <c r="K6">
+        <v>2250</v>
+      </c>
+      <c r="L6">
+        <v>2250</v>
+      </c>
+      <c r="M6" t="s">
+        <v>442</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>443</v>
+      </c>
+      <c r="P6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>871</v>
+      </c>
+      <c r="B7" t="s">
+        <v>872</v>
+      </c>
+      <c r="C7" s="13">
+        <v>44599</v>
+      </c>
+      <c r="D7">
+        <v>2022</v>
+      </c>
+      <c r="F7" t="s">
+        <v>862</v>
+      </c>
+      <c r="G7" t="s">
+        <v>863</v>
+      </c>
+      <c r="H7" t="s">
+        <v>439</v>
+      </c>
+      <c r="I7" t="s">
+        <v>440</v>
+      </c>
+      <c r="J7" t="s">
+        <v>519</v>
+      </c>
+      <c r="K7">
+        <v>2414.7600000000002</v>
+      </c>
+      <c r="L7">
+        <v>2414.7600000000002</v>
+      </c>
+      <c r="M7" t="s">
+        <v>442</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>443</v>
+      </c>
+      <c r="P7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>81</v>
+      </c>
+      <c r="R7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>873</v>
+      </c>
+      <c r="B8" t="s">
+        <v>874</v>
+      </c>
+      <c r="C8" s="13">
+        <v>44599</v>
+      </c>
+      <c r="D8">
+        <v>2022</v>
+      </c>
+      <c r="F8" t="s">
+        <v>875</v>
+      </c>
+      <c r="G8" t="s">
+        <v>876</v>
+      </c>
+      <c r="H8" t="s">
+        <v>439</v>
+      </c>
+      <c r="I8" t="s">
+        <v>440</v>
+      </c>
+      <c r="J8" t="s">
+        <v>519</v>
+      </c>
+      <c r="K8">
+        <v>2960.02</v>
+      </c>
+      <c r="L8">
+        <v>2960.02</v>
+      </c>
+      <c r="M8" t="s">
+        <v>442</v>
+      </c>
+      <c r="N8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" t="s">
+        <v>443</v>
+      </c>
+      <c r="P8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>877</v>
+      </c>
+      <c r="B9" t="s">
+        <v>878</v>
+      </c>
+      <c r="C9" s="13">
+        <v>44599</v>
+      </c>
+      <c r="D9">
+        <v>2022</v>
+      </c>
+      <c r="F9" t="s">
+        <v>875</v>
+      </c>
+      <c r="G9" t="s">
+        <v>876</v>
+      </c>
+      <c r="H9" t="s">
+        <v>439</v>
+      </c>
+      <c r="I9" t="s">
+        <v>440</v>
+      </c>
+      <c r="J9" t="s">
+        <v>519</v>
+      </c>
+      <c r="K9">
+        <v>3750</v>
+      </c>
+      <c r="L9">
+        <v>3750</v>
+      </c>
+      <c r="M9" t="s">
+        <v>442</v>
+      </c>
+      <c r="N9" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9" t="s">
+        <v>443</v>
+      </c>
+      <c r="P9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>890</v>
+      </c>
+      <c r="B10" t="s">
+        <v>891</v>
+      </c>
+      <c r="C10" s="13">
+        <v>44599</v>
+      </c>
+      <c r="D10">
+        <v>2022</v>
+      </c>
+      <c r="F10" t="s">
+        <v>892</v>
+      </c>
+      <c r="G10" t="s">
+        <v>893</v>
+      </c>
+      <c r="H10" t="s">
+        <v>439</v>
+      </c>
+      <c r="I10" t="s">
+        <v>440</v>
+      </c>
+      <c r="J10" t="s">
+        <v>519</v>
+      </c>
+      <c r="K10">
+        <v>4750</v>
+      </c>
+      <c r="L10">
+        <v>4750</v>
+      </c>
+      <c r="M10" t="s">
+        <v>442</v>
+      </c>
+      <c r="N10" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" t="s">
+        <v>443</v>
+      </c>
+      <c r="P10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>81</v>
+      </c>
+      <c r="R10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>908</v>
+      </c>
+      <c r="B11" t="s">
+        <v>909</v>
+      </c>
+      <c r="C11" s="13">
+        <v>44599</v>
+      </c>
+      <c r="D11">
+        <v>2022</v>
+      </c>
+      <c r="F11" t="s">
+        <v>892</v>
+      </c>
+      <c r="G11" t="s">
+        <v>893</v>
+      </c>
+      <c r="H11" t="s">
+        <v>439</v>
+      </c>
+      <c r="I11" t="s">
+        <v>440</v>
+      </c>
+      <c r="J11" t="s">
+        <v>519</v>
+      </c>
+      <c r="K11">
+        <v>6550</v>
+      </c>
+      <c r="L11">
+        <v>6550</v>
+      </c>
+      <c r="M11" t="s">
+        <v>442</v>
+      </c>
+      <c r="N11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" t="s">
+        <v>443</v>
+      </c>
+      <c r="P11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>81</v>
+      </c>
+      <c r="R11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>912</v>
+      </c>
+      <c r="B12" t="s">
+        <v>913</v>
+      </c>
+      <c r="C12" s="13">
+        <v>44599</v>
+      </c>
+      <c r="D12">
+        <v>2022</v>
+      </c>
+      <c r="F12" t="s">
+        <v>892</v>
+      </c>
+      <c r="G12" t="s">
+        <v>893</v>
+      </c>
+      <c r="H12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I12" t="s">
+        <v>440</v>
+      </c>
+      <c r="J12" t="s">
+        <v>519</v>
+      </c>
+      <c r="K12">
+        <v>6900</v>
+      </c>
+      <c r="L12">
+        <v>6900</v>
+      </c>
+      <c r="M12" t="s">
+        <v>442</v>
+      </c>
+      <c r="N12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" t="s">
+        <v>443</v>
+      </c>
+      <c r="P12" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>81</v>
+      </c>
+      <c r="R12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>925</v>
+      </c>
+      <c r="B13" t="s">
+        <v>926</v>
+      </c>
+      <c r="C13" s="13">
+        <v>44601</v>
+      </c>
+      <c r="D13">
+        <v>2022</v>
+      </c>
+      <c r="F13" t="s">
+        <v>927</v>
+      </c>
+      <c r="G13" t="s">
+        <v>928</v>
+      </c>
+      <c r="H13" t="s">
+        <v>439</v>
+      </c>
+      <c r="I13" t="s">
+        <v>440</v>
+      </c>
+      <c r="J13" t="s">
+        <v>519</v>
+      </c>
+      <c r="K13">
+        <v>737</v>
+      </c>
+      <c r="L13">
+        <v>737</v>
+      </c>
+      <c r="M13" t="s">
+        <v>442</v>
+      </c>
+      <c r="N13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O13" t="s">
+        <v>443</v>
+      </c>
+      <c r="P13" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>81</v>
+      </c>
+      <c r="R13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>933</v>
+      </c>
+      <c r="B14" t="s">
+        <v>934</v>
+      </c>
+      <c r="C14" s="13">
+        <v>44601</v>
+      </c>
+      <c r="D14">
+        <v>2022</v>
+      </c>
+      <c r="F14" t="s">
+        <v>935</v>
+      </c>
+      <c r="G14" t="s">
+        <v>936</v>
+      </c>
+      <c r="H14" t="s">
+        <v>439</v>
+      </c>
+      <c r="I14" t="s">
+        <v>440</v>
+      </c>
+      <c r="J14" t="s">
+        <v>519</v>
+      </c>
+      <c r="K14">
+        <v>1543.87</v>
+      </c>
+      <c r="L14">
+        <v>1543.87</v>
+      </c>
+      <c r="M14" t="s">
+        <v>442</v>
+      </c>
+      <c r="N14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" t="s">
+        <v>443</v>
+      </c>
+      <c r="P14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>81</v>
+      </c>
+      <c r="R14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>937</v>
+      </c>
+      <c r="B15" t="s">
+        <v>938</v>
+      </c>
+      <c r="C15" s="13">
+        <v>44601</v>
+      </c>
+      <c r="D15">
+        <v>2022</v>
+      </c>
+      <c r="F15" t="s">
+        <v>939</v>
+      </c>
+      <c r="G15" t="s">
+        <v>940</v>
+      </c>
+      <c r="H15" t="s">
+        <v>439</v>
+      </c>
+      <c r="I15" t="s">
+        <v>440</v>
+      </c>
+      <c r="J15" t="s">
+        <v>519</v>
+      </c>
+      <c r="K15">
+        <v>1603.56</v>
+      </c>
+      <c r="L15">
+        <v>1603.56</v>
+      </c>
+      <c r="M15" t="s">
+        <v>442</v>
+      </c>
+      <c r="N15" t="s">
+        <v>81</v>
+      </c>
+      <c r="O15" t="s">
+        <v>443</v>
+      </c>
+      <c r="P15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>81</v>
+      </c>
+      <c r="R15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>941</v>
+      </c>
+      <c r="B16" t="s">
+        <v>942</v>
+      </c>
+      <c r="C16" s="13">
+        <v>44601</v>
+      </c>
+      <c r="D16">
+        <v>2022</v>
+      </c>
+      <c r="F16" t="s">
+        <v>927</v>
+      </c>
+      <c r="G16" t="s">
+        <v>928</v>
+      </c>
+      <c r="H16" t="s">
+        <v>439</v>
+      </c>
+      <c r="I16" t="s">
+        <v>440</v>
+      </c>
+      <c r="J16" t="s">
+        <v>519</v>
+      </c>
+      <c r="K16">
+        <v>1750</v>
+      </c>
+      <c r="L16">
+        <v>1750</v>
+      </c>
+      <c r="M16" t="s">
+        <v>442</v>
+      </c>
+      <c r="N16" t="s">
+        <v>81</v>
+      </c>
+      <c r="O16" t="s">
+        <v>443</v>
+      </c>
+      <c r="P16" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>81</v>
+      </c>
+      <c r="R16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>950</v>
+      </c>
+      <c r="B17" t="s">
+        <v>951</v>
+      </c>
+      <c r="C17" s="13">
+        <v>44601</v>
+      </c>
+      <c r="D17">
+        <v>2022</v>
+      </c>
+      <c r="F17" t="s">
+        <v>927</v>
+      </c>
+      <c r="G17" t="s">
+        <v>928</v>
+      </c>
+      <c r="H17" t="s">
+        <v>439</v>
+      </c>
+      <c r="I17" t="s">
+        <v>440</v>
+      </c>
+      <c r="J17" t="s">
+        <v>519</v>
+      </c>
+      <c r="K17">
+        <v>3750</v>
+      </c>
+      <c r="L17">
+        <v>3750</v>
+      </c>
+      <c r="M17" t="s">
+        <v>442</v>
+      </c>
+      <c r="N17" t="s">
+        <v>81</v>
+      </c>
+      <c r="O17" t="s">
+        <v>443</v>
+      </c>
+      <c r="P17" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>81</v>
+      </c>
+      <c r="R17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>952</v>
+      </c>
+      <c r="B18" t="s">
+        <v>953</v>
+      </c>
+      <c r="C18" s="13">
+        <v>44601</v>
+      </c>
+      <c r="D18">
+        <v>2022</v>
+      </c>
+      <c r="F18" t="s">
+        <v>517</v>
+      </c>
+      <c r="G18" t="s">
+        <v>518</v>
+      </c>
+      <c r="H18" t="s">
+        <v>439</v>
+      </c>
+      <c r="I18" t="s">
+        <v>440</v>
+      </c>
+      <c r="J18" t="s">
+        <v>519</v>
+      </c>
+      <c r="K18">
+        <v>3916.8</v>
+      </c>
+      <c r="L18">
+        <v>3916.8</v>
+      </c>
+      <c r="M18" t="s">
+        <v>442</v>
+      </c>
+      <c r="N18" t="s">
+        <v>81</v>
+      </c>
+      <c r="O18" t="s">
+        <v>443</v>
+      </c>
+      <c r="P18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>81</v>
+      </c>
+      <c r="R18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>954</v>
+      </c>
+      <c r="B19" t="s">
+        <v>955</v>
+      </c>
+      <c r="C19" s="13">
+        <v>44601</v>
+      </c>
+      <c r="D19">
+        <v>2022</v>
+      </c>
+      <c r="F19" t="s">
+        <v>935</v>
+      </c>
+      <c r="G19" t="s">
+        <v>936</v>
+      </c>
+      <c r="H19" t="s">
+        <v>439</v>
+      </c>
+      <c r="I19" t="s">
+        <v>440</v>
+      </c>
+      <c r="J19" t="s">
+        <v>519</v>
+      </c>
+      <c r="K19">
+        <v>4750</v>
+      </c>
+      <c r="L19">
+        <v>4750</v>
+      </c>
+      <c r="M19" t="s">
+        <v>442</v>
+      </c>
+      <c r="N19" t="s">
+        <v>81</v>
+      </c>
+      <c r="O19" t="s">
+        <v>443</v>
+      </c>
+      <c r="P19" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>81</v>
+      </c>
+      <c r="R19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>956</v>
+      </c>
+      <c r="B20" t="s">
+        <v>957</v>
+      </c>
+      <c r="C20" s="13">
+        <v>44601</v>
+      </c>
+      <c r="D20">
+        <v>2022</v>
+      </c>
+      <c r="F20" t="s">
+        <v>517</v>
+      </c>
+      <c r="G20" t="s">
+        <v>518</v>
+      </c>
+      <c r="H20" t="s">
+        <v>439</v>
+      </c>
+      <c r="I20" t="s">
+        <v>440</v>
+      </c>
+      <c r="J20" t="s">
+        <v>519</v>
+      </c>
+      <c r="K20">
+        <v>4750</v>
+      </c>
+      <c r="L20">
+        <v>4750</v>
+      </c>
+      <c r="M20" t="s">
+        <v>442</v>
+      </c>
+      <c r="N20" t="s">
+        <v>81</v>
+      </c>
+      <c r="O20" t="s">
+        <v>443</v>
+      </c>
+      <c r="P20" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>81</v>
+      </c>
+      <c r="R20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>958</v>
+      </c>
+      <c r="B21" t="s">
+        <v>959</v>
+      </c>
+      <c r="C21" s="13">
+        <v>44601</v>
+      </c>
+      <c r="D21">
+        <v>2022</v>
+      </c>
+      <c r="F21" t="s">
+        <v>939</v>
+      </c>
+      <c r="G21" t="s">
+        <v>940</v>
+      </c>
+      <c r="H21" t="s">
+        <v>439</v>
+      </c>
+      <c r="I21" t="s">
+        <v>440</v>
+      </c>
+      <c r="J21" t="s">
+        <v>519</v>
+      </c>
+      <c r="K21">
+        <v>4750</v>
+      </c>
+      <c r="L21">
+        <v>4750</v>
+      </c>
+      <c r="M21" t="s">
+        <v>442</v>
+      </c>
+      <c r="N21" t="s">
+        <v>81</v>
+      </c>
+      <c r="O21" t="s">
+        <v>443</v>
+      </c>
+      <c r="P21" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>81</v>
+      </c>
+      <c r="R21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>962</v>
+      </c>
+      <c r="B22" t="s">
+        <v>963</v>
+      </c>
+      <c r="C22" s="13">
+        <v>44601</v>
+      </c>
+      <c r="D22">
+        <v>2022</v>
+      </c>
+      <c r="F22" t="s">
+        <v>927</v>
+      </c>
+      <c r="G22" t="s">
+        <v>928</v>
+      </c>
+      <c r="H22" t="s">
+        <v>439</v>
+      </c>
+      <c r="I22" t="s">
+        <v>440</v>
+      </c>
+      <c r="J22" t="s">
+        <v>519</v>
+      </c>
+      <c r="K22">
+        <v>9168.14</v>
+      </c>
+      <c r="L22">
+        <v>9168.14</v>
+      </c>
+      <c r="M22" t="s">
+        <v>442</v>
+      </c>
+      <c r="N22" t="s">
+        <v>81</v>
+      </c>
+      <c r="O22" t="s">
+        <v>443</v>
+      </c>
+      <c r="P22" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>81</v>
+      </c>
+      <c r="R22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>967</v>
+      </c>
+      <c r="B23" t="s">
+        <v>968</v>
+      </c>
+      <c r="C23" s="13">
+        <v>44602</v>
+      </c>
+      <c r="D23">
+        <v>2022</v>
+      </c>
+      <c r="F23" t="s">
+        <v>969</v>
+      </c>
+      <c r="G23" t="s">
+        <v>970</v>
+      </c>
+      <c r="H23" t="s">
+        <v>439</v>
+      </c>
+      <c r="I23" t="s">
+        <v>440</v>
+      </c>
+      <c r="J23" t="s">
+        <v>519</v>
+      </c>
+      <c r="K23">
+        <v>145.46</v>
+      </c>
+      <c r="L23">
+        <v>145.46</v>
+      </c>
+      <c r="M23" t="s">
+        <v>442</v>
+      </c>
+      <c r="N23" t="s">
+        <v>81</v>
+      </c>
+      <c r="O23" t="s">
+        <v>443</v>
+      </c>
+      <c r="P23" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>81</v>
+      </c>
+      <c r="R23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>975</v>
+      </c>
+      <c r="B24" t="s">
+        <v>976</v>
+      </c>
+      <c r="C24" s="13">
+        <v>44602</v>
+      </c>
+      <c r="D24">
+        <v>2022</v>
+      </c>
+      <c r="F24" t="s">
+        <v>892</v>
+      </c>
+      <c r="G24" t="s">
+        <v>893</v>
+      </c>
+      <c r="H24" t="s">
+        <v>439</v>
+      </c>
+      <c r="I24" t="s">
+        <v>440</v>
+      </c>
+      <c r="J24" t="s">
+        <v>519</v>
+      </c>
+      <c r="K24">
+        <v>1300</v>
+      </c>
+      <c r="L24">
+        <v>1300</v>
+      </c>
+      <c r="M24" t="s">
+        <v>442</v>
+      </c>
+      <c r="N24" t="s">
+        <v>81</v>
+      </c>
+      <c r="O24" t="s">
+        <v>443</v>
+      </c>
+      <c r="P24" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>81</v>
+      </c>
+      <c r="R24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>977</v>
+      </c>
+      <c r="B25" t="s">
+        <v>978</v>
+      </c>
+      <c r="C25" s="13">
+        <v>44602</v>
+      </c>
+      <c r="D25">
+        <v>2022</v>
+      </c>
+      <c r="F25" t="s">
+        <v>862</v>
+      </c>
+      <c r="G25" t="s">
+        <v>863</v>
+      </c>
+      <c r="H25" t="s">
+        <v>439</v>
+      </c>
+      <c r="I25" t="s">
+        <v>440</v>
+      </c>
+      <c r="J25" t="s">
+        <v>519</v>
+      </c>
+      <c r="K25">
+        <v>1595.76</v>
+      </c>
+      <c r="L25">
+        <v>1595.76</v>
+      </c>
+      <c r="M25" t="s">
+        <v>442</v>
+      </c>
+      <c r="N25" t="s">
+        <v>81</v>
+      </c>
+      <c r="O25" t="s">
+        <v>443</v>
+      </c>
+      <c r="P25" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>81</v>
+      </c>
+      <c r="R25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>979</v>
+      </c>
+      <c r="B26" t="s">
+        <v>980</v>
+      </c>
+      <c r="C26" s="13">
+        <v>44602</v>
+      </c>
+      <c r="D26">
+        <v>2022</v>
+      </c>
+      <c r="F26" t="s">
+        <v>892</v>
+      </c>
+      <c r="G26" t="s">
+        <v>893</v>
+      </c>
+      <c r="H26" t="s">
+        <v>439</v>
+      </c>
+      <c r="I26" t="s">
+        <v>440</v>
+      </c>
+      <c r="J26" t="s">
+        <v>519</v>
+      </c>
+      <c r="K26">
+        <v>1665.3</v>
+      </c>
+      <c r="L26">
+        <v>1665.3</v>
+      </c>
+      <c r="M26" t="s">
+        <v>442</v>
+      </c>
+      <c r="N26" t="s">
+        <v>81</v>
+      </c>
+      <c r="O26" t="s">
+        <v>443</v>
+      </c>
+      <c r="P26" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>81</v>
+      </c>
+      <c r="R26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>981</v>
+      </c>
+      <c r="B27" t="s">
+        <v>982</v>
+      </c>
+      <c r="C27" s="13">
+        <v>44602</v>
+      </c>
+      <c r="D27">
+        <v>2022</v>
+      </c>
+      <c r="F27" t="s">
+        <v>892</v>
+      </c>
+      <c r="G27" t="s">
+        <v>893</v>
+      </c>
+      <c r="H27" t="s">
+        <v>439</v>
+      </c>
+      <c r="I27" t="s">
+        <v>440</v>
+      </c>
+      <c r="J27" t="s">
+        <v>519</v>
+      </c>
+      <c r="K27">
+        <v>1665.3</v>
+      </c>
+      <c r="L27">
+        <v>1665.3</v>
+      </c>
+      <c r="M27" t="s">
+        <v>442</v>
+      </c>
+      <c r="N27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O27" t="s">
+        <v>443</v>
+      </c>
+      <c r="P27" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>81</v>
+      </c>
+      <c r="R27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>985</v>
+      </c>
+      <c r="B28" t="s">
+        <v>986</v>
+      </c>
+      <c r="C28" s="13">
+        <v>44602</v>
+      </c>
+      <c r="D28">
+        <v>2022</v>
+      </c>
+      <c r="F28" t="s">
+        <v>969</v>
+      </c>
+      <c r="G28" t="s">
+        <v>970</v>
+      </c>
+      <c r="H28" t="s">
+        <v>439</v>
+      </c>
+      <c r="I28" t="s">
+        <v>440</v>
+      </c>
+      <c r="J28" t="s">
+        <v>519</v>
+      </c>
+      <c r="K28">
+        <v>2300</v>
+      </c>
+      <c r="L28">
+        <v>2300</v>
+      </c>
+      <c r="M28" t="s">
+        <v>442</v>
+      </c>
+      <c r="N28" t="s">
+        <v>81</v>
+      </c>
+      <c r="O28" t="s">
+        <v>443</v>
+      </c>
+      <c r="P28" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>81</v>
+      </c>
+      <c r="R28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>991</v>
+      </c>
+      <c r="B29" t="s">
+        <v>992</v>
+      </c>
+      <c r="C29" s="13">
+        <v>44602</v>
+      </c>
+      <c r="D29">
+        <v>2022</v>
+      </c>
+      <c r="F29" t="s">
+        <v>862</v>
+      </c>
+      <c r="G29" t="s">
+        <v>863</v>
+      </c>
+      <c r="H29" t="s">
+        <v>439</v>
+      </c>
+      <c r="I29" t="s">
+        <v>440</v>
+      </c>
+      <c r="J29" t="s">
+        <v>519</v>
+      </c>
+      <c r="K29">
+        <v>4500</v>
+      </c>
+      <c r="L29">
+        <v>4500</v>
+      </c>
+      <c r="M29" t="s">
+        <v>442</v>
+      </c>
+      <c r="N29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O29" t="s">
+        <v>443</v>
+      </c>
+      <c r="P29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>81</v>
+      </c>
+      <c r="R29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C30" s="13">
+        <v>44607</v>
+      </c>
+      <c r="D30">
+        <v>2022</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H30" t="s">
+        <v>439</v>
+      </c>
+      <c r="I30" t="s">
+        <v>440</v>
+      </c>
+      <c r="J30" t="s">
+        <v>519</v>
+      </c>
+      <c r="K30">
+        <v>2250</v>
+      </c>
+      <c r="L30">
+        <v>2250</v>
+      </c>
+      <c r="M30" t="s">
+        <v>442</v>
+      </c>
+      <c r="N30" t="s">
+        <v>81</v>
+      </c>
+      <c r="O30" t="s">
+        <v>443</v>
+      </c>
+      <c r="P30" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>81</v>
+      </c>
+      <c r="R30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C31" s="13">
+        <v>44607</v>
+      </c>
+      <c r="D31">
+        <v>2022</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H31" t="s">
+        <v>439</v>
+      </c>
+      <c r="I31" t="s">
+        <v>440</v>
+      </c>
+      <c r="J31" t="s">
+        <v>519</v>
+      </c>
+      <c r="K31">
+        <v>9300</v>
+      </c>
+      <c r="L31">
+        <v>9300</v>
+      </c>
+      <c r="M31" t="s">
+        <v>442</v>
+      </c>
+      <c r="N31" t="s">
+        <v>81</v>
+      </c>
+      <c r="O31" t="s">
+        <v>443</v>
+      </c>
+      <c r="P31" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>81</v>
+      </c>
+      <c r="R31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C32" s="13">
+        <v>44607</v>
+      </c>
+      <c r="D32">
+        <v>2022</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H32" t="s">
+        <v>439</v>
+      </c>
+      <c r="I32" t="s">
+        <v>440</v>
+      </c>
+      <c r="J32" t="s">
+        <v>519</v>
+      </c>
+      <c r="K32">
+        <v>12110.35</v>
+      </c>
+      <c r="L32">
+        <v>12110.35</v>
+      </c>
+      <c r="M32" t="s">
+        <v>442</v>
+      </c>
+      <c r="N32" t="s">
+        <v>81</v>
+      </c>
+      <c r="O32" t="s">
+        <v>443</v>
+      </c>
+      <c r="P32" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>81</v>
+      </c>
+      <c r="R32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C33" s="13">
+        <v>44608</v>
+      </c>
+      <c r="D33">
+        <v>2022</v>
+      </c>
+      <c r="F33" t="s">
+        <v>927</v>
+      </c>
+      <c r="G33" t="s">
+        <v>928</v>
+      </c>
+      <c r="H33" t="s">
+        <v>439</v>
+      </c>
+      <c r="I33" t="s">
+        <v>440</v>
+      </c>
+      <c r="J33" t="s">
+        <v>519</v>
+      </c>
+      <c r="K33">
+        <v>336.6</v>
+      </c>
+      <c r="L33">
+        <v>336.6</v>
+      </c>
+      <c r="M33" t="s">
+        <v>442</v>
+      </c>
+      <c r="N33" t="s">
+        <v>81</v>
+      </c>
+      <c r="O33" t="s">
+        <v>443</v>
+      </c>
+      <c r="P33" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>81</v>
+      </c>
+      <c r="R33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C34" s="13">
+        <v>44608</v>
+      </c>
+      <c r="D34">
+        <v>2022</v>
+      </c>
+      <c r="F34" t="s">
+        <v>862</v>
+      </c>
+      <c r="G34" t="s">
+        <v>863</v>
+      </c>
+      <c r="H34" t="s">
+        <v>439</v>
+      </c>
+      <c r="I34" t="s">
+        <v>440</v>
+      </c>
+      <c r="J34" t="s">
+        <v>519</v>
+      </c>
+      <c r="K34">
+        <v>386</v>
+      </c>
+      <c r="L34">
+        <v>386</v>
+      </c>
+      <c r="M34" t="s">
+        <v>442</v>
+      </c>
+      <c r="N34" t="s">
+        <v>81</v>
+      </c>
+      <c r="O34" t="s">
+        <v>443</v>
+      </c>
+      <c r="P34" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>81</v>
+      </c>
+      <c r="R34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C35" s="13">
+        <v>44608</v>
+      </c>
+      <c r="D35">
+        <v>2022</v>
+      </c>
+      <c r="F35" t="s">
+        <v>862</v>
+      </c>
+      <c r="G35" t="s">
+        <v>863</v>
+      </c>
+      <c r="H35" t="s">
+        <v>439</v>
+      </c>
+      <c r="I35" t="s">
+        <v>440</v>
+      </c>
+      <c r="J35" t="s">
+        <v>519</v>
+      </c>
+      <c r="K35">
+        <v>2250</v>
+      </c>
+      <c r="L35">
+        <v>2250</v>
+      </c>
+      <c r="M35" t="s">
+        <v>442</v>
+      </c>
+      <c r="N35" t="s">
+        <v>81</v>
+      </c>
+      <c r="O35" t="s">
+        <v>443</v>
+      </c>
+      <c r="P35" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>81</v>
+      </c>
+      <c r="R35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C36" s="13">
+        <v>44608</v>
+      </c>
+      <c r="D36">
+        <v>2022</v>
+      </c>
+      <c r="F36" t="s">
+        <v>927</v>
+      </c>
+      <c r="G36" t="s">
+        <v>928</v>
+      </c>
+      <c r="H36" t="s">
+        <v>439</v>
+      </c>
+      <c r="I36" t="s">
+        <v>440</v>
+      </c>
+      <c r="J36" t="s">
+        <v>519</v>
+      </c>
+      <c r="K36">
+        <v>3750</v>
+      </c>
+      <c r="L36">
+        <v>3750</v>
+      </c>
+      <c r="M36" t="s">
+        <v>442</v>
+      </c>
+      <c r="N36" t="s">
+        <v>81</v>
+      </c>
+      <c r="O36" t="s">
+        <v>443</v>
+      </c>
+      <c r="P36" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>81</v>
+      </c>
+      <c r="R36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C37" s="13">
+        <v>44608</v>
+      </c>
+      <c r="D37">
+        <v>2022</v>
+      </c>
+      <c r="F37" t="s">
+        <v>939</v>
+      </c>
+      <c r="G37" t="s">
+        <v>940</v>
+      </c>
+      <c r="H37" t="s">
+        <v>439</v>
+      </c>
+      <c r="I37" t="s">
+        <v>440</v>
+      </c>
+      <c r="J37" t="s">
+        <v>519</v>
+      </c>
+      <c r="K37">
+        <v>4750</v>
+      </c>
+      <c r="L37">
+        <v>4750</v>
+      </c>
+      <c r="M37" t="s">
+        <v>442</v>
+      </c>
+      <c r="N37" t="s">
+        <v>81</v>
+      </c>
+      <c r="O37" t="s">
+        <v>443</v>
+      </c>
+      <c r="P37" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>81</v>
+      </c>
+      <c r="R37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C38" s="13">
+        <v>44608</v>
+      </c>
+      <c r="D38">
+        <v>2022</v>
+      </c>
+      <c r="F38" t="s">
+        <v>927</v>
+      </c>
+      <c r="G38" t="s">
+        <v>928</v>
+      </c>
+      <c r="H38" t="s">
+        <v>439</v>
+      </c>
+      <c r="I38" t="s">
+        <v>440</v>
+      </c>
+      <c r="J38" t="s">
+        <v>519</v>
+      </c>
+      <c r="K38">
+        <v>7568.98</v>
+      </c>
+      <c r="L38">
+        <v>7568.98</v>
+      </c>
+      <c r="M38" t="s">
+        <v>442</v>
+      </c>
+      <c r="N38" t="s">
+        <v>81</v>
+      </c>
+      <c r="O38" t="s">
+        <v>443</v>
+      </c>
+      <c r="P38" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>81</v>
+      </c>
+      <c r="R38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3297E6-2DCF-45BD-BE76-5C767D3F47F2}">
+  <dimension ref="A1:R8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C2" s="13">
+        <v>44565</v>
+      </c>
+      <c r="D2">
+        <v>2022</v>
+      </c>
+      <c r="F2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G2" t="s">
+        <v>487</v>
+      </c>
+      <c r="H2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I2" t="s">
+        <v>440</v>
+      </c>
+      <c r="J2" t="s">
+        <v>488</v>
+      </c>
+      <c r="K2">
+        <v>1300</v>
+      </c>
+      <c r="L2">
+        <v>1300</v>
+      </c>
+      <c r="M2" t="s">
+        <v>442</v>
+      </c>
+      <c r="N2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" t="s">
+        <v>443</v>
+      </c>
+      <c r="P2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C3" s="13">
+        <v>44565</v>
+      </c>
+      <c r="D3">
+        <v>2022</v>
+      </c>
+      <c r="F3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G3" t="s">
+        <v>487</v>
+      </c>
+      <c r="H3" t="s">
+        <v>439</v>
+      </c>
+      <c r="I3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J3" t="s">
+        <v>488</v>
+      </c>
+      <c r="K3">
+        <v>9866.4</v>
+      </c>
+      <c r="L3">
+        <v>9866.4</v>
+      </c>
+      <c r="M3" t="s">
+        <v>442</v>
+      </c>
+      <c r="N3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" t="s">
+        <v>443</v>
+      </c>
+      <c r="P3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C4" s="13">
+        <v>44566</v>
+      </c>
+      <c r="D4">
+        <v>2022</v>
+      </c>
+      <c r="F4" t="s">
+        <v>486</v>
+      </c>
+      <c r="G4" t="s">
+        <v>487</v>
+      </c>
+      <c r="H4" t="s">
+        <v>439</v>
+      </c>
+      <c r="I4" t="s">
+        <v>440</v>
+      </c>
+      <c r="J4" t="s">
+        <v>488</v>
+      </c>
+      <c r="K4">
+        <v>1585.2</v>
+      </c>
+      <c r="L4">
+        <v>1585.2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>442</v>
+      </c>
+      <c r="N4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" t="s">
+        <v>443</v>
+      </c>
+      <c r="P4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>643</v>
+      </c>
+      <c r="B5" t="s">
+        <v>644</v>
+      </c>
+      <c r="C5" s="13">
+        <v>44578</v>
+      </c>
+      <c r="D5">
+        <v>2022</v>
+      </c>
+      <c r="F5" t="s">
+        <v>645</v>
+      </c>
+      <c r="G5" t="s">
+        <v>646</v>
+      </c>
+      <c r="H5" t="s">
+        <v>439</v>
+      </c>
+      <c r="I5" t="s">
+        <v>440</v>
+      </c>
+      <c r="J5" t="s">
+        <v>488</v>
+      </c>
+      <c r="K5">
+        <v>4750</v>
+      </c>
+      <c r="L5">
+        <v>4750</v>
+      </c>
+      <c r="M5" t="s">
+        <v>442</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>443</v>
+      </c>
+      <c r="P5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C6" s="13">
+        <v>44607</v>
+      </c>
+      <c r="D6">
+        <v>2022</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H6" t="s">
+        <v>439</v>
+      </c>
+      <c r="I6" t="s">
+        <v>440</v>
+      </c>
+      <c r="J6" t="s">
+        <v>488</v>
+      </c>
+      <c r="K6">
+        <v>1211.3</v>
+      </c>
+      <c r="L6">
+        <v>1211.3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>442</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>443</v>
+      </c>
+      <c r="P6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C7" s="13">
+        <v>44607</v>
+      </c>
+      <c r="D7">
+        <v>2022</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H7" t="s">
+        <v>439</v>
+      </c>
+      <c r="I7" t="s">
+        <v>440</v>
+      </c>
+      <c r="J7" t="s">
+        <v>488</v>
+      </c>
+      <c r="K7">
+        <v>4750</v>
+      </c>
+      <c r="L7">
+        <v>4750</v>
+      </c>
+      <c r="M7" t="s">
+        <v>442</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>443</v>
+      </c>
+      <c r="P7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>81</v>
+      </c>
+      <c r="R7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C8" s="13">
+        <v>44607</v>
+      </c>
+      <c r="D8">
+        <v>2022</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H8" t="s">
+        <v>439</v>
+      </c>
+      <c r="I8" t="s">
+        <v>440</v>
+      </c>
+      <c r="J8" t="s">
+        <v>488</v>
+      </c>
+      <c r="K8">
+        <v>17700</v>
+      </c>
+      <c r="L8">
+        <v>17700</v>
+      </c>
+      <c r="M8" t="s">
+        <v>442</v>
+      </c>
+      <c r="N8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" t="s">
+        <v>443</v>
+      </c>
+      <c r="P8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C6A302-DBED-482C-8486-09CC8329E2B5}">
+  <dimension ref="A1:R14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C2" s="13">
+        <v>44577</v>
+      </c>
+      <c r="D2">
+        <v>2022</v>
+      </c>
+      <c r="F2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G2" t="s">
+        <v>613</v>
+      </c>
+      <c r="H2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I2" t="s">
+        <v>440</v>
+      </c>
+      <c r="J2" t="s">
+        <v>614</v>
+      </c>
+      <c r="K2">
+        <v>1950</v>
+      </c>
+      <c r="L2">
+        <v>1950</v>
+      </c>
+      <c r="M2" t="s">
+        <v>442</v>
+      </c>
+      <c r="N2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" t="s">
+        <v>443</v>
+      </c>
+      <c r="P2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C3" s="13">
+        <v>44577</v>
+      </c>
+      <c r="D3">
+        <v>2022</v>
+      </c>
+      <c r="F3" t="s">
+        <v>612</v>
+      </c>
+      <c r="G3" t="s">
+        <v>613</v>
+      </c>
+      <c r="H3" t="s">
+        <v>439</v>
+      </c>
+      <c r="I3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J3" t="s">
+        <v>614</v>
+      </c>
+      <c r="K3">
+        <v>5720.92</v>
+      </c>
+      <c r="L3">
+        <v>5720.92</v>
+      </c>
+      <c r="M3" t="s">
+        <v>442</v>
+      </c>
+      <c r="N3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" t="s">
+        <v>443</v>
+      </c>
+      <c r="P3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>806</v>
+      </c>
+      <c r="B4" t="s">
+        <v>807</v>
+      </c>
+      <c r="C4" s="13">
+        <v>44591</v>
+      </c>
+      <c r="D4">
+        <v>2022</v>
+      </c>
+      <c r="F4" t="s">
+        <v>808</v>
+      </c>
+      <c r="G4" t="s">
+        <v>809</v>
+      </c>
+      <c r="H4" t="s">
+        <v>439</v>
+      </c>
+      <c r="I4" t="s">
+        <v>440</v>
+      </c>
+      <c r="J4" t="s">
+        <v>614</v>
+      </c>
+      <c r="K4">
+        <v>2450</v>
+      </c>
+      <c r="L4">
+        <v>2450</v>
+      </c>
+      <c r="M4" t="s">
+        <v>442</v>
+      </c>
+      <c r="N4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" t="s">
+        <v>443</v>
+      </c>
+      <c r="P4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>810</v>
+      </c>
+      <c r="B5" t="s">
+        <v>811</v>
+      </c>
+      <c r="C5" s="13">
+        <v>44591</v>
+      </c>
+      <c r="D5">
+        <v>2022</v>
+      </c>
+      <c r="F5" t="s">
+        <v>808</v>
+      </c>
+      <c r="G5" t="s">
+        <v>809</v>
+      </c>
+      <c r="H5" t="s">
+        <v>439</v>
+      </c>
+      <c r="I5" t="s">
+        <v>440</v>
+      </c>
+      <c r="J5" t="s">
+        <v>614</v>
+      </c>
+      <c r="K5">
+        <v>36850</v>
+      </c>
+      <c r="L5">
+        <v>36850</v>
+      </c>
+      <c r="M5" t="s">
+        <v>442</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>443</v>
+      </c>
+      <c r="P5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>812</v>
+      </c>
+      <c r="B6" t="s">
+        <v>813</v>
+      </c>
+      <c r="C6" s="13">
+        <v>44592</v>
+      </c>
+      <c r="D6">
+        <v>2022</v>
+      </c>
+      <c r="F6" t="s">
+        <v>814</v>
+      </c>
+      <c r="G6" t="s">
+        <v>815</v>
+      </c>
+      <c r="H6" t="s">
+        <v>439</v>
+      </c>
+      <c r="I6" t="s">
+        <v>440</v>
+      </c>
+      <c r="J6" t="s">
+        <v>614</v>
+      </c>
+      <c r="K6">
+        <v>1680.82</v>
+      </c>
+      <c r="L6">
+        <v>1680.82</v>
+      </c>
+      <c r="M6" t="s">
+        <v>442</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>443</v>
+      </c>
+      <c r="P6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>816</v>
+      </c>
+      <c r="B7" t="s">
+        <v>817</v>
+      </c>
+      <c r="C7" s="13">
+        <v>44592</v>
+      </c>
+      <c r="D7">
+        <v>2022</v>
+      </c>
+      <c r="F7" t="s">
+        <v>814</v>
+      </c>
+      <c r="G7" t="s">
+        <v>815</v>
+      </c>
+      <c r="H7" t="s">
+        <v>439</v>
+      </c>
+      <c r="I7" t="s">
+        <v>440</v>
+      </c>
+      <c r="J7" t="s">
+        <v>614</v>
+      </c>
+      <c r="K7">
+        <v>2250</v>
+      </c>
+      <c r="L7">
+        <v>2250</v>
+      </c>
+      <c r="M7" t="s">
+        <v>442</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>443</v>
+      </c>
+      <c r="P7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>81</v>
+      </c>
+      <c r="R7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>832</v>
+      </c>
+      <c r="B8" t="s">
+        <v>833</v>
+      </c>
+      <c r="C8" s="13">
+        <v>44595</v>
+      </c>
+      <c r="D8">
+        <v>2022</v>
+      </c>
+      <c r="F8" t="s">
+        <v>808</v>
+      </c>
+      <c r="G8" t="s">
+        <v>809</v>
+      </c>
+      <c r="H8" t="s">
+        <v>439</v>
+      </c>
+      <c r="I8" t="s">
+        <v>440</v>
+      </c>
+      <c r="J8" t="s">
+        <v>614</v>
+      </c>
+      <c r="K8">
+        <v>133641</v>
+      </c>
+      <c r="L8">
+        <v>133641</v>
+      </c>
+      <c r="M8" t="s">
+        <v>442</v>
+      </c>
+      <c r="N8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" t="s">
+        <v>443</v>
+      </c>
+      <c r="P8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>894</v>
+      </c>
+      <c r="B9" t="s">
+        <v>895</v>
+      </c>
+      <c r="C9" s="13">
+        <v>44599</v>
+      </c>
+      <c r="D9">
+        <v>2022</v>
+      </c>
+      <c r="F9" t="s">
+        <v>808</v>
+      </c>
+      <c r="G9" t="s">
+        <v>809</v>
+      </c>
+      <c r="H9" t="s">
+        <v>439</v>
+      </c>
+      <c r="I9" t="s">
+        <v>440</v>
+      </c>
+      <c r="J9" t="s">
+        <v>614</v>
+      </c>
+      <c r="K9">
+        <v>4750</v>
+      </c>
+      <c r="L9">
+        <v>4750</v>
+      </c>
+      <c r="M9" t="s">
+        <v>442</v>
+      </c>
+      <c r="N9" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9" t="s">
+        <v>443</v>
+      </c>
+      <c r="P9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C10" s="13">
+        <v>44605</v>
+      </c>
+      <c r="D10">
+        <v>2022</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H10" t="s">
+        <v>439</v>
+      </c>
+      <c r="I10" t="s">
+        <v>440</v>
+      </c>
+      <c r="J10" t="s">
+        <v>614</v>
+      </c>
+      <c r="K10">
+        <v>2250</v>
+      </c>
+      <c r="L10">
+        <v>2250</v>
+      </c>
+      <c r="M10" t="s">
+        <v>442</v>
+      </c>
+      <c r="N10" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" t="s">
+        <v>443</v>
+      </c>
+      <c r="P10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>81</v>
+      </c>
+      <c r="R10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C11" s="13">
+        <v>44605</v>
+      </c>
+      <c r="D11">
+        <v>2022</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H11" t="s">
+        <v>439</v>
+      </c>
+      <c r="I11" t="s">
+        <v>440</v>
+      </c>
+      <c r="J11" t="s">
+        <v>614</v>
+      </c>
+      <c r="K11">
+        <v>2350</v>
+      </c>
+      <c r="L11">
+        <v>2350</v>
+      </c>
+      <c r="M11" t="s">
+        <v>442</v>
+      </c>
+      <c r="N11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" t="s">
+        <v>443</v>
+      </c>
+      <c r="P11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>81</v>
+      </c>
+      <c r="R11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C12" s="13">
+        <v>44605</v>
+      </c>
+      <c r="D12">
+        <v>2022</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I12" t="s">
+        <v>440</v>
+      </c>
+      <c r="J12" t="s">
+        <v>614</v>
+      </c>
+      <c r="K12">
+        <v>2600</v>
+      </c>
+      <c r="L12">
+        <v>2600</v>
+      </c>
+      <c r="M12" t="s">
+        <v>442</v>
+      </c>
+      <c r="N12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" t="s">
+        <v>443</v>
+      </c>
+      <c r="P12" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>81</v>
+      </c>
+      <c r="R12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C13" s="13">
+        <v>44606</v>
+      </c>
+      <c r="D13">
+        <v>2022</v>
+      </c>
+      <c r="F13" t="s">
+        <v>808</v>
+      </c>
+      <c r="G13" t="s">
+        <v>809</v>
+      </c>
+      <c r="H13" t="s">
+        <v>439</v>
+      </c>
+      <c r="I13" t="s">
+        <v>440</v>
+      </c>
+      <c r="J13" t="s">
+        <v>614</v>
+      </c>
+      <c r="K13">
+        <v>1717.59</v>
+      </c>
+      <c r="L13">
+        <v>1717.59</v>
+      </c>
+      <c r="M13" t="s">
+        <v>442</v>
+      </c>
+      <c r="N13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O13" t="s">
+        <v>443</v>
+      </c>
+      <c r="P13" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>81</v>
+      </c>
+      <c r="R13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C14" s="13">
+        <v>44606</v>
+      </c>
+      <c r="D14">
+        <v>2022</v>
+      </c>
+      <c r="F14" t="s">
+        <v>808</v>
+      </c>
+      <c r="G14" t="s">
+        <v>809</v>
+      </c>
+      <c r="H14" t="s">
+        <v>439</v>
+      </c>
+      <c r="I14" t="s">
+        <v>440</v>
+      </c>
+      <c r="J14" t="s">
+        <v>614</v>
+      </c>
+      <c r="K14">
+        <v>4750</v>
+      </c>
+      <c r="L14">
+        <v>4750</v>
+      </c>
+      <c r="M14" t="s">
+        <v>442</v>
+      </c>
+      <c r="N14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" t="s">
+        <v>443</v>
+      </c>
+      <c r="P14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>81</v>
+      </c>
+      <c r="R14" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
